--- a/trunk/TP 2/Archivos/Resultados Euler.xlsx
+++ b/trunk/TP 2/Archivos/Resultados Euler.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="28380" windowHeight="12705"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <definedName name="tp2MetodoDeEulerValoresPaso2" localSheetId="0">Hoja1!$E$3:$F$63</definedName>
     <definedName name="tp2MetodoDeEulerValoresPaso4" localSheetId="0">Hoja1!$B$3:$C$33</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
   <si>
     <t>Euler paso 4seg.</t>
   </si>
@@ -78,15 +78,18 @@
   <si>
     <t>Euler paso 0,5seg.</t>
   </si>
+  <si>
+    <t>Error(%):</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.000000000000"/>
+    <numFmt numFmtId="164" formatCode="0.000000000000"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,7 +114,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -291,62 +294,83 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="tp2MetodoDeEulerValoresPaso2" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="tp2MetodoDeEulerValoresPaso4" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="tp2MetodoDeEulerValoresPaso05" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="tp2MetodoDeEulerValoresPaso1_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="tp2MetodoDeEulerValoresPaso2" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="tp2MetodoDeEulerValoresPaso4" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -424,6 +448,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -458,6 +483,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -633,16 +659,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L245"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G239" sqref="G239"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="16.42578125" customWidth="1"/>
     <col min="3" max="3" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" customWidth="1"/>
     <col min="6" max="6" width="25.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.42578125" customWidth="1"/>
     <col min="9" max="9" width="25.85546875" bestFit="1" customWidth="1"/>
@@ -650,1769 +678,1769 @@
     <col min="12" max="12" width="25.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="19.5" thickBot="1">
+    <row r="1" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3"/>
+      <c r="C1" s="15"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3"/>
+      <c r="F1" s="15"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="3"/>
+      <c r="I1" s="15"/>
       <c r="J1" s="1"/>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="3"/>
-    </row>
-    <row r="2" spans="1:12" ht="15.75" thickBot="1">
+      <c r="L1" s="15"/>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="1"/>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="G2" s="1"/>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="J2" s="1"/>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="8">
+      <c r="B3" s="6">
         <v>0</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="7">
         <v>10000000000</v>
       </c>
       <c r="D3" s="1"/>
-      <c r="E3" s="10">
+      <c r="E3" s="8">
         <v>0</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="9">
         <v>10000000000</v>
       </c>
       <c r="G3" s="1"/>
-      <c r="H3" s="10">
+      <c r="H3" s="8">
         <v>0</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="9">
         <v>10000000000</v>
       </c>
       <c r="J3" s="1"/>
-      <c r="K3" s="10">
+      <c r="K3" s="8">
         <v>0</v>
       </c>
-      <c r="L3" s="11">
+      <c r="L3" s="9">
         <v>10000000000</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="12">
+      <c r="B4" s="10">
         <v>4</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="11">
         <v>10000000000</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="12">
+      <c r="E4" s="10">
         <v>2</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="11">
         <v>10000000000</v>
       </c>
       <c r="G4" s="1"/>
-      <c r="H4" s="12">
+      <c r="H4" s="10">
         <v>1</v>
       </c>
-      <c r="I4" s="13">
+      <c r="I4" s="11">
         <v>10000000000</v>
       </c>
       <c r="J4" s="1"/>
-      <c r="K4" s="12">
+      <c r="K4" s="10">
         <v>0.5</v>
       </c>
-      <c r="L4" s="13">
+      <c r="L4" s="11">
         <v>10000000000</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="12">
+      <c r="B5" s="10">
         <v>8</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="11">
         <v>10017777773.3333</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="12">
+      <c r="E5" s="10">
         <v>4</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="11">
         <v>10004444446.666599</v>
       </c>
       <c r="G5" s="1"/>
-      <c r="H5" s="12">
+      <c r="H5" s="10">
         <v>2</v>
       </c>
-      <c r="I5" s="13">
+      <c r="I5" s="11">
         <v>10001111110</v>
       </c>
       <c r="J5" s="1"/>
-      <c r="K5" s="12">
+      <c r="K5" s="10">
         <v>1</v>
       </c>
-      <c r="L5" s="13">
+      <c r="L5" s="11">
         <v>10000277778.3333</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="12">
+      <c r="B6" s="10">
         <v>12</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="11">
         <v>10053396543.2019</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="12">
+      <c r="E6" s="10">
         <v>6</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="11">
         <v>10013337283.951599</v>
       </c>
       <c r="G6" s="1"/>
-      <c r="H6" s="12">
+      <c r="H6" s="10">
         <v>3</v>
       </c>
-      <c r="I6" s="13">
+      <c r="I6" s="11">
         <v>10003333580.2467</v>
       </c>
       <c r="J6" s="1"/>
-      <c r="K6" s="12">
+      <c r="K6" s="10">
         <v>1.5</v>
       </c>
-      <c r="L6" s="13">
+      <c r="L6" s="11">
         <v>10000833348.7654</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="12">
+      <c r="B7" s="10">
         <v>16</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="11">
         <v>10107014658.099001</v>
       </c>
       <c r="D7" s="1"/>
-      <c r="E7" s="12">
+      <c r="E7" s="10">
         <v>8</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="11">
         <v>10026688400.3302</v>
       </c>
       <c r="G7" s="1"/>
-      <c r="H7" s="12">
+      <c r="H7" s="10">
         <v>4</v>
       </c>
-      <c r="I7" s="13">
+      <c r="I7" s="11">
         <v>10006668024.7735</v>
       </c>
       <c r="J7" s="1"/>
-      <c r="K7" s="12">
+      <c r="K7" s="10">
         <v>2</v>
       </c>
-      <c r="L7" s="13">
+      <c r="L7" s="11">
         <v>10001666751.5445</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="12">
+      <c r="B8" s="10">
         <v>20</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="11">
         <v>10178886757.8424</v>
       </c>
       <c r="D8" s="1"/>
-      <c r="E8" s="12">
+      <c r="E8" s="10">
         <v>10</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="11">
         <v>10044513626.3811</v>
       </c>
       <c r="G8" s="1"/>
-      <c r="H8" s="12">
+      <c r="H8" s="10">
         <v>5</v>
       </c>
-      <c r="I8" s="13">
+      <c r="I8" s="11">
         <v>10011115431.672701</v>
       </c>
       <c r="J8" s="1"/>
-      <c r="K8" s="12">
+      <c r="K8" s="10">
         <v>2.5</v>
       </c>
-      <c r="L8" s="13">
+      <c r="L8" s="11">
         <v>10002778048.4058</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="12">
+      <c r="B9" s="10">
         <v>24</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="11">
         <v>10269365755.7693</v>
       </c>
       <c r="D9" s="1"/>
-      <c r="E9" s="12">
+      <c r="E9" s="10">
         <v>12</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="11">
         <v>10066834765.541</v>
       </c>
       <c r="G9" s="1"/>
-      <c r="H9" s="12">
+      <c r="H9" s="10">
         <v>6</v>
       </c>
-      <c r="I9" s="13">
+      <c r="I9" s="11">
         <v>10016677163.5804</v>
       </c>
       <c r="J9" s="1"/>
-      <c r="K9" s="12">
+      <c r="K9" s="10">
         <v>3</v>
       </c>
-      <c r="L9" s="13">
+      <c r="L9" s="11">
         <v>10004167322.5791</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="12">
+      <c r="B10" s="10">
         <v>28</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="11">
         <v>10378905657.1642</v>
       </c>
       <c r="D10" s="1"/>
-      <c r="E10" s="12">
+      <c r="E10" s="10">
         <v>14</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="11">
         <v>10093679658.2491</v>
       </c>
       <c r="G10" s="1"/>
-      <c r="H10" s="12">
+      <c r="H10" s="10">
         <v>7</v>
       </c>
-      <c r="I10" s="13">
+      <c r="I10" s="11">
         <v>10023354948.3561</v>
       </c>
       <c r="J10" s="1"/>
-      <c r="K10" s="12">
+      <c r="K10" s="10">
         <v>3.5</v>
       </c>
-      <c r="L10" s="13">
+      <c r="L10" s="11">
         <v>10005834683.7995</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="12">
+      <c r="B11" s="10">
         <v>32</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="11">
         <v>10508065367.396</v>
       </c>
       <c r="D11" s="1"/>
-      <c r="E11" s="12">
+      <c r="E11" s="10">
         <v>16</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="11">
         <v>10125082219.4289</v>
       </c>
       <c r="G11" s="1"/>
-      <c r="H11" s="12">
+      <c r="H11" s="10">
         <v>8</v>
       </c>
-      <c r="I11" s="13">
+      <c r="I11" s="11">
         <v>10031150889.98</v>
       </c>
       <c r="J11" s="1"/>
-      <c r="K11" s="12">
+      <c r="K11" s="10">
         <v>4</v>
       </c>
-      <c r="L11" s="13">
+      <c r="L11" s="11">
         <v>10007780263.321699</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="12">
+      <c r="B12" s="10">
         <v>36</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="11">
         <v>10657513412.847099</v>
       </c>
       <c r="D12" s="1"/>
-      <c r="E12" s="12">
+      <c r="E12" s="10">
         <v>18</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="11">
         <v>10161082509.514601</v>
       </c>
       <c r="G12" s="1"/>
-      <c r="H12" s="12">
+      <c r="H12" s="10">
         <v>9</v>
       </c>
-      <c r="I12" s="13">
+      <c r="I12" s="11">
         <v>10040067469.663401</v>
       </c>
       <c r="J12" s="1"/>
-      <c r="K12" s="12">
+      <c r="K12" s="10">
         <v>4.5</v>
       </c>
-      <c r="L12" s="13">
+      <c r="L12" s="11">
         <v>10010004213.935301</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="12">
+      <c r="B13" s="10">
         <v>40</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="11">
         <v>10828033627.4526</v>
       </c>
       <c r="D13" s="1"/>
-      <c r="E13" s="12">
+      <c r="E13" s="10">
         <v>20</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F13" s="11">
         <v>10201726839.5527</v>
       </c>
       <c r="G13" s="1"/>
-      <c r="H13" s="12">
+      <c r="H13" s="10">
         <v>10</v>
       </c>
-      <c r="I13" s="13">
+      <c r="I13" s="11">
         <v>10050107537.133101</v>
       </c>
       <c r="J13" s="1"/>
-      <c r="K13" s="12">
+      <c r="K13" s="10">
         <v>5</v>
       </c>
-      <c r="L13" s="13">
+      <c r="L13" s="11">
         <v>10012506714.9888</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="12">
+      <c r="B14" s="10">
         <v>44</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="11">
         <v>11020531998.2393</v>
       </c>
       <c r="D14" s="1"/>
-      <c r="E14" s="12">
+      <c r="E14" s="10">
         <v>22</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F14" s="11">
         <v>10247067849.995501</v>
       </c>
       <c r="G14" s="1"/>
-      <c r="H14" s="12">
+      <c r="H14" s="10">
         <v>11</v>
       </c>
-      <c r="I14" s="13">
+      <c r="I14" s="11">
         <v>10061274322.1688</v>
       </c>
       <c r="J14" s="1"/>
-      <c r="K14" s="12">
+      <c r="K14" s="10">
         <v>5.5</v>
       </c>
-      <c r="L14" s="13">
+      <c r="L14" s="11">
         <v>10015287967.410299</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="12">
+      <c r="B15" s="10">
         <v>48</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="11">
         <v>11236044628.880699</v>
       </c>
       <c r="D15" s="1"/>
-      <c r="E15" s="12">
+      <c r="E15" s="10">
         <v>24</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15" s="11">
         <v>10297164623.873899</v>
       </c>
       <c r="G15" s="1"/>
-      <c r="H15" s="12">
+      <c r="H15" s="10">
         <v>12</v>
       </c>
-      <c r="I15" s="13">
+      <c r="I15" s="11">
         <v>10073571436.347099</v>
       </c>
       <c r="J15" s="1"/>
-      <c r="K15" s="12">
+      <c r="K15" s="10">
         <v>6</v>
       </c>
-      <c r="L15" s="13">
+      <c r="L15" s="11">
         <v>10018348193.732901</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="12">
+      <c r="B16" s="10">
         <v>52</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="11">
         <v>11475746914.296801</v>
       </c>
       <c r="D16" s="1"/>
-      <c r="E16" s="12">
+      <c r="E16" s="10">
         <v>26</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F16" s="11">
         <v>10352082835.2012</v>
       </c>
       <c r="G16" s="1"/>
-      <c r="H16" s="12">
+      <c r="H16" s="10">
         <v>13</v>
       </c>
-      <c r="I16" s="13">
+      <c r="I16" s="11">
         <v>10087002864.9289</v>
       </c>
       <c r="J16" s="1"/>
-      <c r="K16" s="12">
+      <c r="K16" s="10">
         <v>6.5</v>
       </c>
-      <c r="L16" s="13">
+      <c r="L16" s="11">
         <v>10021687643.1308</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="12">
+      <c r="B17" s="10">
         <v>56</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="11">
         <v>11740964171.215799</v>
       </c>
       <c r="D17" s="1"/>
-      <c r="E17" s="12">
+      <c r="E17" s="10">
         <v>28</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="11">
         <v>10411894871.660601</v>
       </c>
       <c r="G17" s="1"/>
-      <c r="H17" s="12">
+      <c r="H17" s="10">
         <v>14</v>
       </c>
-      <c r="I17" s="13">
+      <c r="I17" s="11">
         <v>10101572979.057501</v>
       </c>
       <c r="J17" s="1"/>
-      <c r="K17" s="12">
+      <c r="K17" s="10">
         <v>7</v>
       </c>
-      <c r="L17" s="13">
+      <c r="L17" s="11">
         <v>10025306586.447599</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="12">
+      <c r="B18" s="10">
         <v>60</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18" s="11">
         <v>12033183729.139799</v>
       </c>
       <c r="D18" s="1"/>
-      <c r="E18" s="12">
+      <c r="E18" s="10">
         <v>30</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F18" s="11">
         <v>10476679992.992701</v>
       </c>
       <c r="G18" s="1"/>
-      <c r="H18" s="12">
+      <c r="H18" s="10">
         <v>15</v>
       </c>
-      <c r="I18" s="13">
+      <c r="I18" s="11">
         <v>10117286538.147301</v>
       </c>
       <c r="J18" s="1"/>
-      <c r="K18" s="12">
+      <c r="K18" s="10">
         <v>7.5</v>
       </c>
-      <c r="L18" s="13">
+      <c r="L18" s="11">
         <v>10029205316.229799</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="12">
+      <c r="B19" s="10">
         <v>64</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19" s="11">
         <v>12354068628.583599</v>
       </c>
       <c r="D19" s="1"/>
-      <c r="E19" s="12">
+      <c r="E19" s="10">
         <v>32</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F19" s="11">
         <v>10546524526.2794</v>
       </c>
       <c r="G19" s="1"/>
-      <c r="H19" s="12">
+      <c r="H19" s="10">
         <v>16</v>
       </c>
-      <c r="I19" s="13">
+      <c r="I19" s="11">
         <v>10134148682.3776</v>
       </c>
       <c r="J19" s="1"/>
-      <c r="K19" s="12">
+      <c r="K19" s="10">
         <v>8</v>
       </c>
-      <c r="L19" s="13">
+      <c r="L19" s="11">
         <v>10033384151.7782</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="12">
+      <c r="B20" s="10">
         <v>68</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C20" s="11">
         <v>12661547675.496799</v>
       </c>
       <c r="D20" s="1"/>
-      <c r="E20" s="12">
+      <c r="E20" s="10">
         <v>34</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F20" s="11">
         <v>10621522036.365499</v>
       </c>
       <c r="G20" s="1"/>
-      <c r="H20" s="12">
+      <c r="H20" s="10">
         <v>17</v>
       </c>
-      <c r="I20" s="13">
+      <c r="I20" s="11">
         <v>10152164945.5758</v>
       </c>
       <c r="J20" s="1"/>
-      <c r="K20" s="12">
+      <c r="K20" s="10">
         <v>8.5</v>
       </c>
-      <c r="L20" s="13">
+      <c r="L20" s="11">
         <v>10037843434.180799</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="12">
+      <c r="B21" s="10">
         <v>72</v>
       </c>
-      <c r="C21" s="13">
+      <c r="C21" s="11">
         <v>12954170105.036501</v>
       </c>
       <c r="D21" s="1"/>
-      <c r="E21" s="12">
+      <c r="E21" s="10">
         <v>36</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F21" s="11">
         <v>10701773533.835501</v>
       </c>
       <c r="G21" s="1"/>
-      <c r="H21" s="12">
+      <c r="H21" s="10">
         <v>18</v>
       </c>
-      <c r="I21" s="13">
+      <c r="I21" s="11">
         <v>10171341258.267599</v>
       </c>
       <c r="J21" s="1"/>
-      <c r="K21" s="12">
+      <c r="K21" s="10">
         <v>9</v>
       </c>
-      <c r="L21" s="13">
+      <c r="L21" s="11">
         <v>10042583526.356001</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="12">
+      <c r="B22" s="10">
         <v>76</v>
       </c>
-      <c r="C22" s="13">
+      <c r="C22" s="11">
         <v>13230525733.943899</v>
       </c>
       <c r="D22" s="1"/>
-      <c r="E22" s="12">
+      <c r="E22" s="10">
         <v>38</v>
       </c>
-      <c r="F22" s="13">
+      <c r="F22" s="11">
         <v>10787387722.1061</v>
       </c>
       <c r="G22" s="1"/>
-      <c r="H22" s="12">
+      <c r="H22" s="10">
         <v>19</v>
       </c>
-      <c r="I22" s="13">
+      <c r="I22" s="11">
         <v>10191683940.784201</v>
       </c>
       <c r="J22" s="1"/>
-      <c r="K22" s="12">
+      <c r="K22" s="10">
         <v>9.5</v>
       </c>
-      <c r="L22" s="13">
+      <c r="L22" s="11">
         <v>10047604818.1192</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="12">
+      <c r="B23" s="10">
         <v>80</v>
       </c>
-      <c r="C23" s="13">
+      <c r="C23" s="11">
         <v>-4410175244.6479902</v>
       </c>
       <c r="D23" s="1"/>
-      <c r="E23" s="12">
+      <c r="E23" s="10">
         <v>40</v>
       </c>
-      <c r="F23" s="13">
+      <c r="F23" s="11">
         <v>10878481220.8234</v>
       </c>
       <c r="G23" s="1"/>
-      <c r="H23" s="12">
+      <c r="H23" s="10">
         <v>20</v>
       </c>
-      <c r="I23" s="13">
+      <c r="I23" s="11">
         <v>10213199716.8601</v>
       </c>
       <c r="J23" s="1"/>
-      <c r="K23" s="12">
+      <c r="K23" s="10">
         <v>10</v>
       </c>
-      <c r="L23" s="13">
+      <c r="L23" s="11">
         <v>10052907721.220301</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
-      <c r="B24" s="12">
+      <c r="B24" s="10">
         <v>84</v>
       </c>
-      <c r="C24" s="13">
+      <c r="C24" s="11">
         <v>1470058414.8826599</v>
       </c>
       <c r="D24" s="1"/>
-      <c r="E24" s="12">
+      <c r="E24" s="10">
         <v>42</v>
       </c>
-      <c r="F24" s="13">
+      <c r="F24" s="11">
         <v>10975178829.2577</v>
       </c>
       <c r="G24" s="1"/>
-      <c r="H24" s="12">
+      <c r="H24" s="10">
         <v>21</v>
       </c>
-      <c r="I24" s="13">
+      <c r="I24" s="11">
         <v>10235895717.3657</v>
       </c>
       <c r="J24" s="1"/>
-      <c r="K24" s="12">
+      <c r="K24" s="10">
         <v>10.5</v>
       </c>
-      <c r="L24" s="13">
+      <c r="L24" s="11">
         <v>10058492669.3958</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="12">
+      <c r="B25" s="10">
         <v>88</v>
       </c>
-      <c r="C25" s="13">
+      <c r="C25" s="11">
         <v>-490019471.627554</v>
       </c>
       <c r="D25" s="1"/>
-      <c r="E25" s="12">
+      <c r="E25" s="10">
         <v>44</v>
       </c>
-      <c r="F25" s="13">
+      <c r="F25" s="11">
         <v>11077613831.664101</v>
       </c>
       <c r="G25" s="1"/>
-      <c r="H25" s="12">
+      <c r="H25" s="10">
         <v>22</v>
       </c>
-      <c r="I25" s="13">
+      <c r="I25" s="11">
         <v>10259779474.039499</v>
       </c>
       <c r="J25" s="1"/>
-      <c r="K25" s="12">
+      <c r="K25" s="10">
         <v>11</v>
       </c>
-      <c r="L25" s="13">
+      <c r="L25" s="11">
         <v>10064360123.4529</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="12">
+      <c r="B26" s="10">
         <v>92</v>
       </c>
-      <c r="C26" s="13">
+      <c r="C26" s="11">
         <v>163339823.87585101</v>
       </c>
       <c r="D26" s="1"/>
-      <c r="E26" s="12">
+      <c r="E26" s="10">
         <v>46</v>
       </c>
-      <c r="F26" s="13">
+      <c r="F26" s="11">
         <v>11185928280.479799</v>
       </c>
       <c r="G26" s="1"/>
-      <c r="H26" s="12">
+      <c r="H26" s="10">
         <v>23</v>
       </c>
-      <c r="I26" s="13">
+      <c r="I26" s="11">
         <v>10284858933.8361</v>
       </c>
       <c r="J26" s="1"/>
-      <c r="K26" s="12">
+      <c r="K26" s="10">
         <v>11.5</v>
       </c>
-      <c r="L26" s="13">
+      <c r="L26" s="11">
         <v>10070510566.3097</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="12">
+      <c r="B27" s="10">
         <v>96</v>
       </c>
-      <c r="C27" s="13">
+      <c r="C27" s="11">
         <v>-54446607.958617002</v>
       </c>
       <c r="D27" s="1"/>
-      <c r="E27" s="12">
+      <c r="E27" s="10">
         <v>48</v>
       </c>
-      <c r="F27" s="13">
+      <c r="F27" s="11">
         <v>11300273322.639</v>
       </c>
       <c r="G27" s="1"/>
-      <c r="H27" s="12">
+      <c r="H27" s="10">
         <v>24</v>
       </c>
-      <c r="I27" s="13">
+      <c r="I27" s="11">
         <v>10311142463.365299</v>
       </c>
       <c r="J27" s="1"/>
-      <c r="K27" s="12">
+      <c r="K27" s="10">
         <v>12</v>
       </c>
-      <c r="L27" s="13">
+      <c r="L27" s="11">
         <v>10076944503.056499</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
-      <c r="B28" s="12">
+      <c r="B28" s="10">
         <v>100</v>
       </c>
-      <c r="C28" s="13">
+      <c r="C28" s="11">
         <v>18148869.319538999</v>
       </c>
       <c r="D28" s="1"/>
-      <c r="E28" s="12">
+      <c r="E28" s="10">
         <v>50</v>
       </c>
-      <c r="F28" s="13">
+      <c r="F28" s="11">
         <v>11420809571.413799</v>
       </c>
       <c r="G28" s="1"/>
-      <c r="H28" s="12">
+      <c r="H28" s="10">
         <v>25</v>
       </c>
-      <c r="I28" s="13">
+      <c r="I28" s="11">
         <v>10338638843.267599</v>
       </c>
       <c r="J28" s="1"/>
-      <c r="K28" s="12">
+      <c r="K28" s="10">
         <v>12.5</v>
       </c>
-      <c r="L28" s="13">
+      <c r="L28" s="11">
         <v>10083662466.0585</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
-      <c r="B29" s="12">
+      <c r="B29" s="10">
         <v>104</v>
       </c>
-      <c r="C29" s="13">
+      <c r="C29" s="11">
         <v>-6049623.1065130001</v>
       </c>
       <c r="D29" s="1"/>
-      <c r="E29" s="12">
+      <c r="E29" s="10">
         <v>52</v>
       </c>
-      <c r="F29" s="13">
+      <c r="F29" s="11">
         <v>11547707458.0786</v>
       </c>
       <c r="G29" s="1"/>
-      <c r="H29" s="12">
+      <c r="H29" s="10">
         <v>26</v>
       </c>
-      <c r="I29" s="13">
+      <c r="I29" s="11">
         <v>10367357283.350201</v>
       </c>
       <c r="J29" s="1"/>
-      <c r="K29" s="12">
+      <c r="K29" s="10">
         <v>13</v>
       </c>
-      <c r="L29" s="13">
+      <c r="L29" s="11">
         <v>10090665009.997999</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
-      <c r="B30" s="12">
+      <c r="B30" s="10">
         <v>108</v>
       </c>
-      <c r="C30" s="13">
+      <c r="C30" s="11">
         <v>2016541.0355043299</v>
       </c>
       <c r="D30" s="1"/>
-      <c r="E30" s="12">
+      <c r="E30" s="10">
         <v>54</v>
       </c>
-      <c r="F30" s="13">
+      <c r="F30" s="11">
         <v>11681147630.583599</v>
       </c>
       <c r="G30" s="1"/>
-      <c r="H30" s="12">
+      <c r="H30" s="10">
         <v>27</v>
       </c>
-      <c r="I30" s="13">
+      <c r="I30" s="11">
         <v>10397307427.7651</v>
       </c>
       <c r="J30" s="1"/>
-      <c r="K30" s="12">
+      <c r="K30" s="10">
         <v>13.5</v>
       </c>
-      <c r="L30" s="13">
+      <c r="L30" s="11">
         <v>10097952711.944599</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
-      <c r="B31" s="12">
+      <c r="B31" s="10">
         <v>112</v>
       </c>
-      <c r="C31" s="13">
+      <c r="C31" s="11">
         <v>-672180.34516810998</v>
       </c>
       <c r="D31" s="1"/>
-      <c r="E31" s="12">
+      <c r="E31" s="10">
         <v>56</v>
       </c>
-      <c r="F31" s="13">
+      <c r="F31" s="11">
         <v>11821321402.1506</v>
       </c>
       <c r="G31" s="1"/>
-      <c r="H31" s="12">
+      <c r="H31" s="10">
         <v>28</v>
       </c>
-      <c r="I31" s="13">
+      <c r="I31" s="11">
         <v>10428499350.048401</v>
       </c>
       <c r="J31" s="1"/>
-      <c r="K31" s="12">
+      <c r="K31" s="10">
         <v>14</v>
       </c>
-      <c r="L31" s="13">
+      <c r="L31" s="11">
         <v>10105526176.4785</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
-      <c r="B32" s="12">
+      <c r="B32" s="10">
         <v>116</v>
       </c>
-      <c r="C32" s="13">
+      <c r="C32" s="11">
         <v>224060.11505603601</v>
       </c>
       <c r="D32" s="1"/>
-      <c r="E32" s="12">
+      <c r="E32" s="10">
         <v>58</v>
       </c>
-      <c r="F32" s="13">
+      <c r="F32" s="11">
         <v>11968431182.2265</v>
       </c>
       <c r="G32" s="1"/>
-      <c r="H32" s="12">
+      <c r="H32" s="10">
         <v>29</v>
       </c>
-      <c r="I32" s="13">
+      <c r="I32" s="11">
         <v>10460943569.0898</v>
       </c>
       <c r="J32" s="1"/>
-      <c r="K32" s="12">
+      <c r="K32" s="10">
         <v>14.5</v>
       </c>
-      <c r="L32" s="13">
+      <c r="L32" s="11">
         <v>10113386030.7328</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="15.75" thickBot="1">
+    <row r="33" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
-      <c r="B33" s="14">
+      <c r="B33" s="12">
         <v>120</v>
       </c>
-      <c r="C33" s="15">
+      <c r="C33" s="13">
         <v>-74686.705018678796</v>
       </c>
       <c r="D33" s="1"/>
-      <c r="E33" s="12">
+      <c r="E33" s="10">
         <v>60</v>
       </c>
-      <c r="F33" s="13">
+      <c r="F33" s="11">
         <v>12122690959.248899</v>
       </c>
       <c r="G33" s="1"/>
-      <c r="H33" s="12">
+      <c r="H33" s="10">
         <v>30</v>
       </c>
-      <c r="I33" s="13">
+      <c r="I33" s="11">
         <v>10494651055.085899</v>
       </c>
       <c r="J33" s="1"/>
-      <c r="K33" s="12">
+      <c r="K33" s="10">
         <v>15</v>
       </c>
-      <c r="L33" s="13">
+      <c r="L33" s="11">
         <v>10121532924.473499</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
-      <c r="E34" s="12">
+      <c r="E34" s="10">
         <v>62</v>
       </c>
-      <c r="F34" s="13">
+      <c r="F34" s="11">
         <v>12284326838.7055</v>
       </c>
       <c r="G34" s="1"/>
-      <c r="H34" s="12">
+      <c r="H34" s="10">
         <v>31</v>
       </c>
-      <c r="I34" s="13">
+      <c r="I34" s="11">
         <v>10529633225.269501</v>
       </c>
       <c r="J34" s="1"/>
-      <c r="K34" s="12">
+      <c r="K34" s="10">
         <v>15.5</v>
       </c>
-      <c r="L34" s="13">
+      <c r="L34" s="11">
         <v>10129967535.2439</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
-      <c r="E35" s="12">
+      <c r="E35" s="10">
         <v>64</v>
       </c>
-      <c r="F35" s="13">
+      <c r="F35" s="11">
         <v>12442658159.674601</v>
       </c>
       <c r="G35" s="1"/>
-      <c r="H35" s="12">
+      <c r="H35" s="10">
         <v>32</v>
       </c>
-      <c r="I35" s="13">
+      <c r="I35" s="11">
         <v>10565901960.7644</v>
       </c>
       <c r="J35" s="1"/>
-      <c r="K35" s="12">
+      <c r="K35" s="10">
         <v>16</v>
       </c>
-      <c r="L35" s="13">
+      <c r="L35" s="11">
         <v>10138690563.406401</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
-      <c r="E36" s="12">
+      <c r="E36" s="10">
         <v>66</v>
       </c>
-      <c r="F36" s="13">
+      <c r="F36" s="11">
         <v>12597500130.648899</v>
       </c>
       <c r="G36" s="1"/>
-      <c r="H36" s="12">
+      <c r="H36" s="10">
         <v>33</v>
       </c>
-      <c r="I36" s="13">
+      <c r="I36" s="11">
         <v>10603469613.354401</v>
       </c>
       <c r="J36" s="1"/>
-      <c r="K36" s="12">
+      <c r="K36" s="10">
         <v>16.5</v>
       </c>
-      <c r="L36" s="13">
+      <c r="L36" s="11">
         <v>10147702732.232901</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
-      <c r="E37" s="12">
+      <c r="E37" s="10">
         <v>68</v>
       </c>
-      <c r="F37" s="13">
+      <c r="F37" s="11">
         <v>12748670132.2167</v>
       </c>
       <c r="G37" s="1"/>
-      <c r="H37" s="12">
+      <c r="H37" s="10">
         <v>34</v>
       </c>
-      <c r="I37" s="13">
+      <c r="I37" s="11">
         <v>10642349001.936701</v>
       </c>
       <c r="J37" s="1"/>
-      <c r="K37" s="12">
+      <c r="K37" s="10">
         <v>17</v>
       </c>
-      <c r="L37" s="13">
+      <c r="L37" s="11">
         <v>10157004793.0707</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
-      <c r="E38" s="12">
+      <c r="E38" s="10">
         <v>70</v>
       </c>
-      <c r="F38" s="13">
+      <c r="F38" s="11">
         <v>12895988095.3559</v>
       </c>
       <c r="G38" s="1"/>
-      <c r="H38" s="12">
+      <c r="H38" s="10">
         <v>35</v>
       </c>
-      <c r="I38" s="13">
+      <c r="I38" s="11">
         <v>10682553430.317101</v>
       </c>
       <c r="J38" s="1"/>
-      <c r="K38" s="12">
+      <c r="K38" s="10">
         <v>17.5</v>
       </c>
-      <c r="L38" s="13">
+      <c r="L38" s="11">
         <v>10166597520.384001</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
-      <c r="E39" s="12">
+      <c r="E39" s="10">
         <v>72</v>
       </c>
-      <c r="F39" s="13">
+      <c r="F39" s="11">
         <v>13039276854.8368</v>
       </c>
       <c r="G39" s="1"/>
-      <c r="H39" s="12">
+      <c r="H39" s="10">
         <v>36</v>
       </c>
-      <c r="I39" s="13">
+      <c r="I39" s="11">
         <v>10724096694.8442</v>
       </c>
       <c r="J39" s="1"/>
-      <c r="K39" s="12">
+      <c r="K39" s="10">
         <v>18</v>
       </c>
-      <c r="L39" s="13">
+      <c r="L39" s="11">
         <v>10176481711.8529</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
-      <c r="E40" s="12">
+      <c r="E40" s="10">
         <v>74</v>
       </c>
-      <c r="F40" s="13">
+      <c r="F40" s="11">
         <v>13178362474.6217</v>
       </c>
       <c r="G40" s="1"/>
-      <c r="H40" s="12">
+      <c r="H40" s="10">
         <v>37</v>
       </c>
-      <c r="I40" s="13">
+      <c r="I40" s="11">
         <v>10766993081.6236</v>
       </c>
       <c r="J40" s="1"/>
-      <c r="K40" s="12">
+      <c r="K40" s="10">
         <v>18.5</v>
       </c>
-      <c r="L40" s="13">
+      <c r="L40" s="11">
         <v>10186658193.5648</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
-      <c r="E41" s="12">
+      <c r="E41" s="10">
         <v>76</v>
       </c>
-      <c r="F41" s="13">
+      <c r="F41" s="11">
         <v>4392787491.5405798</v>
       </c>
       <c r="G41" s="1"/>
-      <c r="H41" s="12">
+      <c r="H41" s="10">
         <v>38</v>
       </c>
-      <c r="I41" s="13">
+      <c r="I41" s="11">
         <v>10811257385.318399</v>
       </c>
       <c r="J41" s="1"/>
-      <c r="K41" s="12">
+      <c r="K41" s="10">
         <v>19</v>
       </c>
-      <c r="L41" s="13">
+      <c r="L41" s="11">
         <v>10197127815.051901</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
-      <c r="E42" s="12">
+      <c r="E42" s="10">
         <v>78</v>
       </c>
-      <c r="F42" s="13">
+      <c r="F42" s="11">
         <v>1464262497.1801901</v>
       </c>
       <c r="G42" s="1"/>
-      <c r="H42" s="12">
+      <c r="H42" s="10">
         <v>39</v>
       </c>
-      <c r="I42" s="13">
+      <c r="I42" s="11">
         <v>10856904917.702101</v>
       </c>
       <c r="J42" s="1"/>
-      <c r="K42" s="12">
+      <c r="K42" s="10">
         <v>19.5</v>
       </c>
-      <c r="L42" s="13">
+      <c r="L42" s="11">
         <v>10207891449.401199</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
-      <c r="E43" s="12">
+      <c r="E43" s="10">
         <v>80</v>
       </c>
-      <c r="F43" s="13">
+      <c r="F43" s="11">
         <v>488087499.06006497</v>
       </c>
       <c r="G43" s="1"/>
-      <c r="H43" s="12">
+      <c r="H43" s="10">
         <v>40</v>
       </c>
-      <c r="I43" s="13">
+      <c r="I43" s="11">
         <v>10903951505.678801</v>
       </c>
       <c r="J43" s="1"/>
-      <c r="K43" s="12">
+      <c r="K43" s="10">
         <v>20</v>
       </c>
-      <c r="L43" s="13">
+      <c r="L43" s="11">
         <v>10218949998.471399</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
-      <c r="E44" s="12">
+      <c r="E44" s="10">
         <v>82</v>
       </c>
-      <c r="F44" s="13">
+      <c r="F44" s="11">
         <v>162695833.02002099</v>
       </c>
       <c r="G44" s="1"/>
-      <c r="H44" s="12">
+      <c r="H44" s="10">
         <v>41</v>
       </c>
-      <c r="I44" s="13">
+      <c r="I44" s="11">
         <v>10952413511.1591</v>
       </c>
       <c r="J44" s="1"/>
-      <c r="K44" s="12">
+      <c r="K44" s="10">
         <v>20.5</v>
       </c>
-      <c r="L44" s="13">
+      <c r="L44" s="11">
         <v>10230304387.9263</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
-      <c r="E45" s="12">
+      <c r="E45" s="10">
         <v>84</v>
       </c>
-      <c r="F45" s="13">
+      <c r="F45" s="11">
         <v>54231944.340007201</v>
       </c>
       <c r="G45" s="1"/>
-      <c r="H45" s="12">
+      <c r="H45" s="10">
         <v>42</v>
       </c>
-      <c r="I45" s="13">
+      <c r="I45" s="11">
         <v>11002307840.593599</v>
       </c>
       <c r="J45" s="1"/>
-      <c r="K45" s="12">
+      <c r="K45" s="10">
         <v>21</v>
       </c>
-      <c r="L45" s="13">
+      <c r="L45" s="11">
         <v>10241955567.355301</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
-      <c r="E46" s="12">
+      <c r="E46" s="10">
         <v>86</v>
       </c>
-      <c r="F46" s="13">
+      <c r="F46" s="11">
         <v>18077314.7800024</v>
       </c>
       <c r="G46" s="1"/>
-      <c r="H46" s="12">
+      <c r="H46" s="10">
         <v>43</v>
       </c>
-      <c r="I46" s="13">
+      <c r="I46" s="11">
         <v>11053651943.849701</v>
       </c>
       <c r="J46" s="1"/>
-      <c r="K46" s="12">
+      <c r="K46" s="10">
         <v>21.5</v>
       </c>
-      <c r="L46" s="13">
+      <c r="L46" s="11">
         <v>10253904515.5173</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
-      <c r="E47" s="12">
+      <c r="E47" s="10">
         <v>88</v>
       </c>
-      <c r="F47" s="13">
+      <c r="F47" s="11">
         <v>6025771.5933341403</v>
       </c>
       <c r="G47" s="1"/>
-      <c r="H47" s="12">
+      <c r="H47" s="10">
         <v>44</v>
       </c>
-      <c r="I47" s="13">
+      <c r="I47" s="11">
         <v>11106463835.2421</v>
       </c>
       <c r="J47" s="1"/>
-      <c r="K47" s="12">
+      <c r="K47" s="10">
         <v>22</v>
       </c>
-      <c r="L47" s="13">
+      <c r="L47" s="11">
         <v>10266152235.369301</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
-      <c r="E48" s="12">
+      <c r="E48" s="10">
         <v>90</v>
       </c>
-      <c r="F48" s="13">
+      <c r="F48" s="11">
         <v>2008590.5311113801</v>
       </c>
       <c r="G48" s="1"/>
-      <c r="H48" s="12">
+      <c r="H48" s="10">
         <v>45</v>
       </c>
-      <c r="I48" s="13">
+      <c r="I48" s="11">
         <v>11160762104.115101</v>
       </c>
       <c r="J48" s="1"/>
-      <c r="K48" s="12">
+      <c r="K48" s="10">
         <v>22.5</v>
       </c>
-      <c r="L48" s="13">
+      <c r="L48" s="11">
         <v>10278699754.1978</v>
       </c>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
-      <c r="E49" s="12">
+      <c r="E49" s="10">
         <v>92</v>
       </c>
-      <c r="F49" s="13">
+      <c r="F49" s="11">
         <v>669530.17703712801</v>
       </c>
       <c r="G49" s="1"/>
-      <c r="H49" s="12">
+      <c r="H49" s="10">
         <v>46</v>
       </c>
-      <c r="I49" s="13">
+      <c r="I49" s="11">
         <v>11216565914.6357</v>
       </c>
       <c r="J49" s="1"/>
-      <c r="K49" s="12">
+      <c r="K49" s="10">
         <v>23</v>
       </c>
-      <c r="L49" s="13">
+      <c r="L49" s="11">
         <v>10291548128.890499</v>
       </c>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
-      <c r="E50" s="12">
+      <c r="E50" s="10">
         <v>94</v>
       </c>
-      <c r="F50" s="13">
+      <c r="F50" s="11">
         <v>223176.72567904199</v>
       </c>
       <c r="G50" s="1"/>
-      <c r="H50" s="12">
+      <c r="H50" s="10">
         <v>47</v>
       </c>
-      <c r="I50" s="13">
+      <c r="I50" s="11">
         <v>11273895028.064199</v>
       </c>
       <c r="J50" s="1"/>
-      <c r="K50" s="12">
+      <c r="K50" s="10">
         <v>23.5</v>
       </c>
-      <c r="L50" s="13">
+      <c r="L50" s="11">
         <v>10304698440.9603</v>
       </c>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
-      <c r="E51" s="12">
+      <c r="E51" s="10">
         <v>96</v>
       </c>
-      <c r="F51" s="13">
+      <c r="F51" s="11">
         <v>74392.241893014201</v>
       </c>
       <c r="G51" s="1"/>
-      <c r="H51" s="12">
+      <c r="H51" s="10">
         <v>48</v>
       </c>
-      <c r="I51" s="13">
+      <c r="I51" s="11">
         <v>11332769814.463499</v>
       </c>
       <c r="J51" s="1"/>
-      <c r="K51" s="12">
+      <c r="K51" s="10">
         <v>24</v>
       </c>
-      <c r="L51" s="13">
+      <c r="L51" s="11">
         <v>10318151796.685801</v>
       </c>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
-      <c r="E52" s="12">
+      <c r="E52" s="10">
         <v>98</v>
       </c>
-      <c r="F52" s="13">
+      <c r="F52" s="11">
         <v>24797.413964338099</v>
       </c>
       <c r="G52" s="1"/>
-      <c r="H52" s="12">
+      <c r="H52" s="10">
         <v>49</v>
       </c>
-      <c r="I52" s="13">
+      <c r="I52" s="11">
         <v>11393211253.4739</v>
       </c>
       <c r="J52" s="1"/>
-      <c r="K52" s="12">
+      <c r="K52" s="10">
         <v>24.5</v>
       </c>
-      <c r="L52" s="13">
+      <c r="L52" s="11">
         <v>10331909332.4147</v>
       </c>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
-      <c r="E53" s="12">
+      <c r="E53" s="10">
         <v>100</v>
       </c>
-      <c r="F53" s="13">
+      <c r="F53" s="11">
         <v>8265.8046547793692</v>
       </c>
       <c r="G53" s="1"/>
-      <c r="H53" s="12">
+      <c r="H53" s="10">
         <v>50</v>
       </c>
-      <c r="I53" s="13">
+      <c r="I53" s="11">
         <v>11455240957.9214</v>
       </c>
       <c r="J53" s="1"/>
-      <c r="K53" s="12">
+      <c r="K53" s="10">
         <v>25</v>
       </c>
-      <c r="L53" s="13">
+      <c r="L53" s="11">
         <v>10345972209.58</v>
       </c>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
-      <c r="E54" s="12">
+      <c r="E54" s="10">
         <v>102</v>
       </c>
-      <c r="F54" s="13">
+      <c r="F54" s="11">
         <v>2755.26821825979</v>
       </c>
       <c r="G54" s="1"/>
-      <c r="H54" s="12">
+      <c r="H54" s="10">
         <v>51</v>
       </c>
-      <c r="I54" s="13">
+      <c r="I54" s="11">
         <v>11518881186.738199</v>
       </c>
       <c r="J54" s="1"/>
-      <c r="K54" s="12">
+      <c r="K54" s="10">
         <v>25.5</v>
       </c>
-      <c r="L54" s="13">
+      <c r="L54" s="11">
         <v>10360341614.8519</v>
       </c>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
-      <c r="E55" s="12">
+      <c r="E55" s="10">
         <v>104</v>
       </c>
-      <c r="F55" s="13">
+      <c r="F55" s="11">
         <v>918.42273941993005</v>
       </c>
       <c r="G55" s="1"/>
-      <c r="H55" s="12">
+      <c r="H55" s="10">
         <v>52</v>
       </c>
-      <c r="I55" s="13">
+      <c r="I55" s="11">
         <v>11584154846.7964</v>
       </c>
       <c r="J55" s="1"/>
-      <c r="K55" s="12">
+      <c r="K55" s="10">
         <v>26</v>
       </c>
-      <c r="L55" s="13">
+      <c r="L55" s="11">
         <v>10375018765.4729</v>
       </c>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
-      <c r="E56" s="12">
+      <c r="E56" s="10">
         <v>106</v>
       </c>
-      <c r="F56" s="13">
+      <c r="F56" s="11">
         <v>306.14091313997699</v>
       </c>
       <c r="G56" s="1"/>
-      <c r="H56" s="12">
+      <c r="H56" s="10">
         <v>53</v>
       </c>
-      <c r="I56" s="13">
+      <c r="I56" s="11">
         <v>11651085517.957399</v>
       </c>
       <c r="J56" s="1"/>
-      <c r="K56" s="12">
+      <c r="K56" s="10">
         <v>26.5</v>
       </c>
-      <c r="L56" s="13">
+      <c r="L56" s="11">
         <v>10390004904.2661</v>
       </c>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
-      <c r="E57" s="12">
+      <c r="E57" s="10">
         <v>108</v>
       </c>
-      <c r="F57" s="13">
+      <c r="F57" s="11">
         <v>102.046971046659</v>
       </c>
       <c r="G57" s="1"/>
-      <c r="H57" s="12">
+      <c r="H57" s="10">
         <v>54</v>
       </c>
-      <c r="I57" s="13">
+      <c r="I57" s="11">
         <v>11719697467.3022</v>
       </c>
       <c r="J57" s="1"/>
-      <c r="K57" s="12">
+      <c r="K57" s="10">
         <v>27</v>
       </c>
-      <c r="L57" s="13">
+      <c r="L57" s="11">
         <v>10405301299.797899</v>
       </c>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
-      <c r="E58" s="12">
+      <c r="E58" s="10">
         <v>110</v>
       </c>
-      <c r="F58" s="13">
+      <c r="F58" s="11">
         <v>34.015657015553003</v>
       </c>
       <c r="G58" s="1"/>
-      <c r="H58" s="12">
+      <c r="H58" s="10">
         <v>55</v>
       </c>
-      <c r="I58" s="13">
+      <c r="I58" s="11">
         <v>11790015652.106001</v>
       </c>
       <c r="J58" s="1"/>
-      <c r="K58" s="12">
+      <c r="K58" s="10">
         <v>27.5</v>
       </c>
-      <c r="L58" s="13">
+      <c r="L58" s="11">
         <v>10420909251.747601</v>
       </c>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
-      <c r="E59" s="12">
+      <c r="E59" s="10">
         <v>112</v>
       </c>
-      <c r="F59" s="13">
+      <c r="F59" s="11">
         <v>11.3385523385176</v>
       </c>
       <c r="G59" s="1"/>
-      <c r="H59" s="12">
+      <c r="H59" s="10">
         <v>56</v>
       </c>
-      <c r="I59" s="13">
+      <c r="I59" s="11">
         <v>11862065746.447701</v>
       </c>
       <c r="J59" s="1"/>
-      <c r="K59" s="12">
+      <c r="K59" s="10">
         <v>28</v>
       </c>
-      <c r="L59" s="13">
+      <c r="L59" s="11">
         <v>10436830085.9056</v>
       </c>
     </row>
-    <row r="60" spans="1:12">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
-      <c r="E60" s="12">
+      <c r="E60" s="10">
         <v>114</v>
       </c>
-      <c r="F60" s="13">
+      <c r="F60" s="11">
         <v>3.77951744617256</v>
       </c>
       <c r="G60" s="1"/>
-      <c r="H60" s="12">
+      <c r="H60" s="10">
         <v>57</v>
       </c>
-      <c r="I60" s="13">
+      <c r="I60" s="11">
         <v>11935874156.854799</v>
       </c>
       <c r="J60" s="1"/>
-      <c r="K60" s="12">
+      <c r="K60" s="10">
         <v>28.5</v>
       </c>
-      <c r="L60" s="13">
+      <c r="L60" s="11">
         <v>10453065154.348301</v>
       </c>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
-      <c r="E61" s="12">
+      <c r="E61" s="10">
         <v>116</v>
       </c>
-      <c r="F61" s="13">
+      <c r="F61" s="11">
         <v>1.25983914872418</v>
       </c>
       <c r="G61" s="1"/>
-      <c r="H61" s="12">
+      <c r="H61" s="10">
         <v>58</v>
       </c>
-      <c r="I61" s="13">
+      <c r="I61" s="11">
         <v>12011468026.514799</v>
       </c>
       <c r="J61" s="1"/>
-      <c r="K61" s="12">
+      <c r="K61" s="10">
         <v>29</v>
       </c>
-      <c r="L61" s="13">
+      <c r="L61" s="11">
         <v>10469615840.842699</v>
       </c>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
-      <c r="E62" s="12">
+      <c r="E62" s="10">
         <v>118</v>
       </c>
-      <c r="F62" s="13">
+      <c r="F62" s="11">
         <v>0.41994638290806202</v>
       </c>
       <c r="G62" s="1"/>
-      <c r="H62" s="12">
+      <c r="H62" s="10">
         <v>59</v>
       </c>
-      <c r="I62" s="13">
+      <c r="I62" s="11">
         <v>12088875263.573299</v>
       </c>
       <c r="J62" s="1"/>
-      <c r="K62" s="12">
+      <c r="K62" s="10">
         <v>29.5</v>
       </c>
-      <c r="L62" s="13">
+      <c r="L62" s="11">
         <v>10486483555.8346</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="15.75" thickBot="1">
+    <row r="63" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
-      <c r="E63" s="14">
+      <c r="E63" s="12">
         <v>120</v>
       </c>
-      <c r="F63" s="15">
+      <c r="F63" s="13">
         <v>0.139982127636021</v>
       </c>
       <c r="G63" s="1"/>
-      <c r="H63" s="12">
+      <c r="H63" s="10">
         <v>60</v>
       </c>
-      <c r="I63" s="13">
+      <c r="I63" s="11">
         <v>12168124558.3111</v>
       </c>
       <c r="J63" s="1"/>
-      <c r="K63" s="12">
+      <c r="K63" s="10">
         <v>30</v>
       </c>
-      <c r="L63" s="13">
+      <c r="L63" s="11">
         <v>10503669736.635201</v>
       </c>
     </row>
-    <row r="64" spans="1:12">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -2420,21 +2448,21 @@
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
-      <c r="H64" s="12">
+      <c r="H64" s="10">
         <v>61</v>
       </c>
-      <c r="I64" s="13">
+      <c r="I64" s="11">
         <v>12249245388.6998</v>
       </c>
       <c r="J64" s="1"/>
-      <c r="K64" s="12">
+      <c r="K64" s="10">
         <v>30.5</v>
       </c>
-      <c r="L64" s="13">
+      <c r="L64" s="11">
         <v>10521175852.8629</v>
       </c>
     </row>
-    <row r="65" spans="1:12">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -2442,21 +2470,21 @@
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
-      <c r="H65" s="12">
+      <c r="H65" s="10">
         <v>62</v>
       </c>
-      <c r="I65" s="13">
+      <c r="I65" s="11">
         <v>12329545998.7201</v>
       </c>
       <c r="J65" s="1"/>
-      <c r="K65" s="12">
+      <c r="K65" s="10">
         <v>31</v>
       </c>
-      <c r="L65" s="13">
+      <c r="L65" s="11">
         <v>10539003401.4203</v>
       </c>
     </row>
-    <row r="66" spans="1:12">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -2464,21 +2492,21 @@
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
-      <c r="H66" s="12">
+      <c r="H66" s="10">
         <v>63</v>
       </c>
-      <c r="I66" s="13">
+      <c r="I66" s="11">
         <v>12409003071.5641</v>
       </c>
       <c r="J66" s="1"/>
-      <c r="K66" s="12">
+      <c r="K66" s="10">
         <v>31.5</v>
       </c>
-      <c r="L66" s="13">
+      <c r="L66" s="11">
         <v>10557153906.692801</v>
       </c>
     </row>
-    <row r="67" spans="1:12">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -2486,21 +2514,21 @@
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
-      <c r="H67" s="12">
+      <c r="H67" s="10">
         <v>64</v>
       </c>
-      <c r="I67" s="13">
+      <c r="I67" s="11">
         <v>12487593424.3507</v>
       </c>
       <c r="J67" s="1"/>
-      <c r="K67" s="12">
+      <c r="K67" s="10">
         <v>32</v>
       </c>
-      <c r="L67" s="13">
+      <c r="L67" s="11">
         <v>10575628926.029499</v>
       </c>
     </row>
-    <row r="68" spans="1:12">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -2508,21 +2536,21 @@
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
-      <c r="H68" s="12">
+      <c r="H68" s="10">
         <v>65</v>
       </c>
-      <c r="I68" s="13">
+      <c r="I68" s="11">
         <v>12565294007.0453</v>
       </c>
       <c r="J68" s="1"/>
-      <c r="K68" s="12">
+      <c r="K68" s="10">
         <v>32.5</v>
       </c>
-      <c r="L68" s="13">
+      <c r="L68" s="11">
         <v>10594430044.7078</v>
       </c>
     </row>
-    <row r="69" spans="1:12">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -2530,21 +2558,21 @@
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
-      <c r="H69" s="12">
+      <c r="H69" s="10">
         <v>66</v>
       </c>
-      <c r="I69" s="13">
+      <c r="I69" s="11">
         <v>12642081913.469999</v>
       </c>
       <c r="J69" s="1"/>
-      <c r="K69" s="12">
+      <c r="K69" s="10">
         <v>33</v>
       </c>
-      <c r="L69" s="13">
+      <c r="L69" s="11">
         <v>10613558876.1444</v>
       </c>
     </row>
-    <row r="70" spans="1:12">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -2552,21 +2580,21 @@
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
-      <c r="H70" s="12">
+      <c r="H70" s="10">
         <v>67</v>
       </c>
-      <c r="I70" s="13">
+      <c r="I70" s="11">
         <v>12717934404.9508</v>
       </c>
       <c r="J70" s="1"/>
-      <c r="K70" s="12">
+      <c r="K70" s="10">
         <v>33.5</v>
       </c>
-      <c r="L70" s="13">
+      <c r="L70" s="11">
         <v>10633017067.417299</v>
       </c>
     </row>
-    <row r="71" spans="1:12">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -2574,21 +2602,21 @@
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
-      <c r="H71" s="12">
+      <c r="H71" s="10">
         <v>68</v>
       </c>
-      <c r="I71" s="13">
+      <c r="I71" s="11">
         <v>12792828908.9708</v>
       </c>
       <c r="J71" s="1"/>
-      <c r="K71" s="12">
+      <c r="K71" s="10">
         <v>34</v>
       </c>
-      <c r="L71" s="13">
+      <c r="L71" s="11">
         <v>10652806294.216801</v>
       </c>
     </row>
-    <row r="72" spans="1:12">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -2596,21 +2624,21 @@
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
-      <c r="H72" s="12">
+      <c r="H72" s="10">
         <v>69</v>
       </c>
-      <c r="I72" s="13">
+      <c r="I72" s="11">
         <v>12866743030.1346</v>
       </c>
       <c r="J72" s="1"/>
-      <c r="K72" s="12">
+      <c r="K72" s="10">
         <v>34.5</v>
       </c>
-      <c r="L72" s="13">
+      <c r="L72" s="11">
         <v>10672928261.0697</v>
       </c>
     </row>
-    <row r="73" spans="1:12">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -2618,21 +2646,21 @@
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
-      <c r="H73" s="12">
+      <c r="H73" s="10">
         <v>70</v>
       </c>
-      <c r="I73" s="13">
+      <c r="I73" s="11">
         <v>12939654573.972</v>
       </c>
       <c r="J73" s="1"/>
-      <c r="K73" s="12">
+      <c r="K73" s="10">
         <v>35</v>
       </c>
-      <c r="L73" s="13">
+      <c r="L73" s="11">
         <v>10693384706.9034</v>
       </c>
     </row>
-    <row r="74" spans="1:12">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -2640,21 +2668,21 @@
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
-      <c r="H74" s="12">
+      <c r="H74" s="10">
         <v>71</v>
       </c>
-      <c r="I74" s="13">
+      <c r="I74" s="11">
         <v>13011541545.2651</v>
       </c>
       <c r="J74" s="1"/>
-      <c r="K74" s="12">
+      <c r="K74" s="10">
         <v>35.5</v>
       </c>
-      <c r="L74" s="13">
+      <c r="L74" s="11">
         <v>10714177399.983101</v>
       </c>
     </row>
-    <row r="75" spans="1:12">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -2662,21 +2690,21 @@
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
-      <c r="H75" s="12">
+      <c r="H75" s="10">
         <v>72</v>
       </c>
-      <c r="I75" s="13">
+      <c r="I75" s="11">
         <v>13082382158.8992</v>
       </c>
       <c r="J75" s="1"/>
-      <c r="K75" s="12">
+      <c r="K75" s="10">
         <v>36</v>
       </c>
-      <c r="L75" s="13">
+      <c r="L75" s="11">
         <v>10735308138.148899</v>
       </c>
     </row>
-    <row r="76" spans="1:12">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -2684,21 +2712,21 @@
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
-      <c r="H76" s="12">
+      <c r="H76" s="10">
         <v>73</v>
       </c>
-      <c r="I76" s="13">
+      <c r="I76" s="11">
         <v>13152154863.7467</v>
       </c>
       <c r="J76" s="1"/>
-      <c r="K76" s="12">
+      <c r="K76" s="10">
         <v>36.5</v>
       </c>
-      <c r="L76" s="13">
+      <c r="L76" s="11">
         <v>10756778754.4252</v>
       </c>
     </row>
-    <row r="77" spans="1:12">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -2706,21 +2734,21 @@
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
-      <c r="H77" s="12">
+      <c r="H77" s="10">
         <v>74</v>
       </c>
-      <c r="I77" s="13">
+      <c r="I77" s="11">
         <v>8768103242.4978008</v>
       </c>
       <c r="J77" s="1"/>
-      <c r="K77" s="12">
+      <c r="K77" s="10">
         <v>37</v>
       </c>
-      <c r="L77" s="13">
+      <c r="L77" s="11">
         <v>10778591111.9415</v>
       </c>
     </row>
-    <row r="78" spans="1:12">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -2728,21 +2756,21 @@
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
-      <c r="H78" s="12">
+      <c r="H78" s="10">
         <v>75</v>
       </c>
-      <c r="I78" s="13">
+      <c r="I78" s="11">
         <v>5845402161.6652002</v>
       </c>
       <c r="J78" s="1"/>
-      <c r="K78" s="12">
+      <c r="K78" s="10">
         <v>37.5</v>
       </c>
-      <c r="L78" s="13">
+      <c r="L78" s="11">
         <v>10800747104.183901</v>
       </c>
     </row>
-    <row r="79" spans="1:12">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -2750,21 +2778,21 @@
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
-      <c r="H79" s="12">
+      <c r="H79" s="10">
         <v>76</v>
       </c>
-      <c r="I79" s="13">
+      <c r="I79" s="11">
         <v>3896934774.44347</v>
       </c>
       <c r="J79" s="1"/>
-      <c r="K79" s="12">
+      <c r="K79" s="10">
         <v>38</v>
       </c>
-      <c r="L79" s="13">
+      <c r="L79" s="11">
         <v>10823248660.650999</v>
       </c>
     </row>
-    <row r="80" spans="1:12">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -2772,21 +2800,21 @@
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
-      <c r="H80" s="12">
+      <c r="H80" s="10">
         <v>77</v>
       </c>
-      <c r="I80" s="13">
+      <c r="I80" s="11">
         <v>2597956516.29564</v>
       </c>
       <c r="J80" s="1"/>
-      <c r="K80" s="12">
+      <c r="K80" s="10">
         <v>38.5</v>
       </c>
-      <c r="L80" s="13">
+      <c r="L80" s="11">
         <v>10846097741.758101</v>
       </c>
     </row>
-    <row r="81" spans="1:12">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -2794,21 +2822,21 @@
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
-      <c r="H81" s="12">
+      <c r="H81" s="10">
         <v>78</v>
       </c>
-      <c r="I81" s="13">
+      <c r="I81" s="11">
         <v>1731971010.86376</v>
       </c>
       <c r="J81" s="1"/>
-      <c r="K81" s="12">
+      <c r="K81" s="10">
         <v>39</v>
       </c>
-      <c r="L81" s="13">
+      <c r="L81" s="11">
         <v>10869296339.103201</v>
       </c>
     </row>
-    <row r="82" spans="1:12">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -2816,21 +2844,21 @@
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
-      <c r="H82" s="12">
+      <c r="H82" s="10">
         <v>79</v>
       </c>
-      <c r="I82" s="13">
+      <c r="I82" s="11">
         <v>1154647340.57584</v>
       </c>
       <c r="J82" s="1"/>
-      <c r="K82" s="12">
+      <c r="K82" s="10">
         <v>39.5</v>
       </c>
-      <c r="L82" s="13">
+      <c r="L82" s="11">
         <v>10892846481.1712</v>
       </c>
     </row>
-    <row r="83" spans="1:12">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -2838,21 +2866,21 @@
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
-      <c r="H83" s="12">
+      <c r="H83" s="10">
         <v>80</v>
       </c>
-      <c r="I83" s="13">
+      <c r="I83" s="11">
         <v>769764893.71722901</v>
       </c>
       <c r="J83" s="1"/>
-      <c r="K83" s="12">
+      <c r="K83" s="10">
         <v>40</v>
       </c>
-      <c r="L83" s="13">
+      <c r="L83" s="11">
         <v>10916750228.221201</v>
       </c>
     </row>
-    <row r="84" spans="1:12">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -2860,21 +2888,21 @@
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
-      <c r="H84" s="12">
+      <c r="H84" s="10">
         <v>81</v>
       </c>
-      <c r="I84" s="13">
+      <c r="I84" s="11">
         <v>513176595.81148601</v>
       </c>
       <c r="J84" s="1"/>
-      <c r="K84" s="12">
+      <c r="K84" s="10">
         <v>40.5</v>
       </c>
-      <c r="L84" s="13">
+      <c r="L84" s="11">
         <v>10941009672.566299</v>
       </c>
     </row>
-    <row r="85" spans="1:12">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -2882,21 +2910,21 @@
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
-      <c r="H85" s="12">
+      <c r="H85" s="10">
         <v>82</v>
       </c>
-      <c r="I85" s="13">
+      <c r="I85" s="11">
         <v>342117730.54099</v>
       </c>
       <c r="J85" s="1"/>
-      <c r="K85" s="12">
+      <c r="K85" s="10">
         <v>41</v>
       </c>
-      <c r="L85" s="13">
+      <c r="L85" s="11">
         <v>10965626944.329599</v>
       </c>
     </row>
-    <row r="86" spans="1:12">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -2904,21 +2932,21 @@
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
-      <c r="H86" s="12">
+      <c r="H86" s="10">
         <v>83</v>
       </c>
-      <c r="I86" s="13">
+      <c r="I86" s="11">
         <v>228078487.027327</v>
       </c>
       <c r="J86" s="1"/>
-      <c r="K86" s="12">
+      <c r="K86" s="10">
         <v>41.5</v>
       </c>
-      <c r="L86" s="13">
+      <c r="L86" s="11">
         <v>10990604206.312</v>
       </c>
     </row>
-    <row r="87" spans="1:12">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -2926,21 +2954,21 @@
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
-      <c r="H87" s="12">
+      <c r="H87" s="10">
         <v>84</v>
       </c>
-      <c r="I87" s="13">
+      <c r="I87" s="11">
         <v>152052324.68488401</v>
       </c>
       <c r="J87" s="1"/>
-      <c r="K87" s="12">
+      <c r="K87" s="10">
         <v>42</v>
       </c>
-      <c r="L87" s="13">
+      <c r="L87" s="11">
         <v>11015943654.2882</v>
       </c>
     </row>
-    <row r="88" spans="1:12">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -2948,21 +2976,21 @@
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
-      <c r="H88" s="12">
+      <c r="H88" s="10">
         <v>85</v>
       </c>
-      <c r="I88" s="13">
+      <c r="I88" s="11">
         <v>101368216.456589</v>
       </c>
       <c r="J88" s="1"/>
-      <c r="K88" s="12">
+      <c r="K88" s="10">
         <v>42.5</v>
       </c>
-      <c r="L88" s="13">
+      <c r="L88" s="11">
         <v>11041647522.8148</v>
       </c>
     </row>
-    <row r="89" spans="1:12">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -2970,21 +2998,21 @@
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
-      <c r="H89" s="12">
+      <c r="H89" s="10">
         <v>86</v>
       </c>
-      <c r="I89" s="13">
+      <c r="I89" s="11">
         <v>67578810.971059904</v>
       </c>
       <c r="J89" s="1"/>
-      <c r="K89" s="12">
+      <c r="K89" s="10">
         <v>43</v>
       </c>
-      <c r="L89" s="13">
+      <c r="L89" s="11">
         <v>11067718080.079399</v>
       </c>
     </row>
-    <row r="90" spans="1:12">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -2992,21 +3020,21 @@
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
-      <c r="H90" s="12">
+      <c r="H90" s="10">
         <v>87</v>
       </c>
-      <c r="I90" s="13">
+      <c r="I90" s="11">
         <v>45052540.647373199</v>
       </c>
       <c r="J90" s="1"/>
-      <c r="K90" s="12">
+      <c r="K90" s="10">
         <v>43.5</v>
       </c>
-      <c r="L90" s="13">
+      <c r="L90" s="11">
         <v>11094157628.2113</v>
       </c>
     </row>
-    <row r="91" spans="1:12">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -3014,21 +3042,21 @@
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
-      <c r="H91" s="12">
+      <c r="H91" s="10">
         <v>88</v>
       </c>
-      <c r="I91" s="13">
+      <c r="I91" s="11">
         <v>30035027.098248798</v>
       </c>
       <c r="J91" s="1"/>
-      <c r="K91" s="12">
+      <c r="K91" s="10">
         <v>44</v>
       </c>
-      <c r="L91" s="13">
+      <c r="L91" s="11">
         <v>11120968509.1462</v>
       </c>
     </row>
-    <row r="92" spans="1:12">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -3036,43 +3064,41 @@
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
-      <c r="H92" s="12">
+      <c r="H92" s="10">
         <v>89</v>
       </c>
-      <c r="I92" s="13">
+      <c r="I92" s="11">
         <v>20023351.3988325</v>
       </c>
       <c r="J92" s="1"/>
-      <c r="K92" s="12">
+      <c r="K92" s="10">
         <v>44.5</v>
       </c>
-      <c r="L92" s="13">
+      <c r="L92" s="11">
         <v>11148153099.452999</v>
       </c>
     </row>
-    <row r="93" spans="1:12">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
-      <c r="E93" s="1"/>
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
-      <c r="H93" s="12">
+      <c r="H93" s="10">
         <v>90</v>
       </c>
-      <c r="I93" s="13">
+      <c r="I93" s="11">
         <v>13348900.932554999</v>
       </c>
       <c r="J93" s="1"/>
-      <c r="K93" s="12">
+      <c r="K93" s="10">
         <v>45</v>
       </c>
-      <c r="L93" s="13">
+      <c r="L93" s="11">
         <v>11175713810.662901</v>
       </c>
     </row>
-    <row r="94" spans="1:12">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -3080,21 +3106,21 @@
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
-      <c r="H94" s="12">
+      <c r="H94" s="10">
         <v>91</v>
       </c>
-      <c r="I94" s="13">
+      <c r="I94" s="11">
         <v>8899267.28837003</v>
       </c>
       <c r="J94" s="1"/>
-      <c r="K94" s="12">
+      <c r="K94" s="10">
         <v>45.5</v>
       </c>
-      <c r="L94" s="13">
+      <c r="L94" s="11">
         <v>11203653095.1896</v>
       </c>
     </row>
-    <row r="95" spans="1:12">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -3102,21 +3128,21 @@
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
-      <c r="H95" s="12">
+      <c r="H95" s="10">
         <v>92</v>
       </c>
-      <c r="I95" s="13">
+      <c r="I95" s="11">
         <v>5932844.8589133499</v>
       </c>
       <c r="J95" s="1"/>
-      <c r="K95" s="12">
+      <c r="K95" s="10">
         <v>46</v>
       </c>
-      <c r="L95" s="13">
+      <c r="L95" s="11">
         <v>11231973441.1359</v>
       </c>
     </row>
-    <row r="96" spans="1:12">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -3124,21 +3150,21 @@
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
-      <c r="H96" s="12">
+      <c r="H96" s="10">
         <v>93</v>
       </c>
-      <c r="I96" s="13">
+      <c r="I96" s="11">
         <v>3955229.90594223</v>
       </c>
       <c r="J96" s="1"/>
-      <c r="K96" s="12">
+      <c r="K96" s="10">
         <v>46.5</v>
       </c>
-      <c r="L96" s="13">
+      <c r="L96" s="11">
         <v>11260677372.639299</v>
       </c>
     </row>
-    <row r="97" spans="1:12">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -3146,21 +3172,21 @@
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
-      <c r="H97" s="12">
+      <c r="H97" s="10">
         <v>94</v>
       </c>
-      <c r="I97" s="13">
+      <c r="I97" s="11">
         <v>2636819.9372948199</v>
       </c>
       <c r="J97" s="1"/>
-      <c r="K97" s="12">
+      <c r="K97" s="10">
         <v>47</v>
       </c>
-      <c r="L97" s="13">
+      <c r="L97" s="11">
         <v>11289767455.8519</v>
       </c>
     </row>
-    <row r="98" spans="1:12">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -3168,21 +3194,21 @@
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
-      <c r="H98" s="12">
+      <c r="H98" s="10">
         <v>95</v>
       </c>
-      <c r="I98" s="13">
+      <c r="I98" s="11">
         <v>1757879.9581965499</v>
       </c>
       <c r="J98" s="1"/>
-      <c r="K98" s="12">
+      <c r="K98" s="10">
         <v>47.5</v>
       </c>
-      <c r="L98" s="13">
+      <c r="L98" s="11">
         <v>11319246293.725</v>
       </c>
     </row>
-    <row r="99" spans="1:12">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -3190,21 +3216,21 @@
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
-      <c r="H99" s="12">
+      <c r="H99" s="10">
         <v>96</v>
       </c>
-      <c r="I99" s="13">
+      <c r="I99" s="11">
         <v>1171919.9721310299</v>
       </c>
       <c r="J99" s="1"/>
-      <c r="K99" s="12">
+      <c r="K99" s="10">
         <v>48</v>
       </c>
-      <c r="L99" s="13">
+      <c r="L99" s="11">
         <v>11349116526.371201</v>
       </c>
     </row>
-    <row r="100" spans="1:12">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -3212,21 +3238,21 @@
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
-      <c r="H100" s="12">
+      <c r="H100" s="10">
         <v>97</v>
       </c>
-      <c r="I100" s="13">
+      <c r="I100" s="11">
         <v>781279.98142068903</v>
       </c>
       <c r="J100" s="1"/>
-      <c r="K100" s="12">
+      <c r="K100" s="10">
         <v>48.5</v>
       </c>
-      <c r="L100" s="13">
+      <c r="L100" s="11">
         <v>11379380837.1082</v>
       </c>
     </row>
-    <row r="101" spans="1:12">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -3234,21 +3260,21 @@
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
-      <c r="H101" s="12">
+      <c r="H101" s="10">
         <v>98</v>
       </c>
-      <c r="I101" s="13">
+      <c r="I101" s="11">
         <v>520853.32094712602</v>
       </c>
       <c r="J101" s="1"/>
-      <c r="K101" s="12">
+      <c r="K101" s="10">
         <v>49</v>
       </c>
-      <c r="L101" s="13">
+      <c r="L101" s="11">
         <v>11410041947.218201</v>
       </c>
     </row>
-    <row r="102" spans="1:12">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -3256,21 +3282,21 @@
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
-      <c r="H102" s="12">
+      <c r="H102" s="10">
         <v>99</v>
       </c>
-      <c r="I102" s="13">
+      <c r="I102" s="11">
         <v>347235.54729808401</v>
       </c>
       <c r="J102" s="1"/>
-      <c r="K102" s="12">
+      <c r="K102" s="10">
         <v>49.5</v>
       </c>
-      <c r="L102" s="13">
+      <c r="L102" s="11">
         <v>11441102616.3295</v>
       </c>
     </row>
-    <row r="103" spans="1:12">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -3278,21 +3304,21 @@
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
-      <c r="H103" s="12">
+      <c r="H103" s="10">
         <v>100</v>
       </c>
-      <c r="I103" s="13">
+      <c r="I103" s="11">
         <v>231490.36486538901</v>
       </c>
       <c r="J103" s="1"/>
-      <c r="K103" s="12">
+      <c r="K103" s="10">
         <v>50</v>
       </c>
-      <c r="L103" s="13">
+      <c r="L103" s="11">
         <v>11472565648.524401</v>
       </c>
     </row>
-    <row r="104" spans="1:12">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -3300,21 +3326,21 @@
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
-      <c r="H104" s="12">
+      <c r="H104" s="10">
         <v>101</v>
       </c>
-      <c r="I104" s="13">
+      <c r="I104" s="11">
         <v>154326.90991025901</v>
       </c>
       <c r="J104" s="1"/>
-      <c r="K104" s="12">
+      <c r="K104" s="10">
         <v>50.5</v>
       </c>
-      <c r="L104" s="13">
+      <c r="L104" s="11">
         <v>11504433887.074301</v>
       </c>
     </row>
-    <row r="105" spans="1:12">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -3322,21 +3348,21 @@
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
-      <c r="H105" s="12">
+      <c r="H105" s="10">
         <v>102</v>
       </c>
-      <c r="I105" s="13">
+      <c r="I105" s="11">
         <v>102884.60660683901</v>
       </c>
       <c r="J105" s="1"/>
-      <c r="K105" s="12">
+      <c r="K105" s="10">
         <v>51</v>
       </c>
-      <c r="L105" s="13">
+      <c r="L105" s="11">
         <v>11536710214.840599</v>
       </c>
     </row>
-    <row r="106" spans="1:12">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -3344,21 +3370,21 @@
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
-      <c r="H106" s="12">
+      <c r="H106" s="10">
         <v>103</v>
       </c>
-      <c r="I106" s="13">
+      <c r="I106" s="11">
         <v>68589.7377378932</v>
       </c>
       <c r="J106" s="1"/>
-      <c r="K106" s="12">
+      <c r="K106" s="10">
         <v>51.5</v>
       </c>
-      <c r="L106" s="13">
+      <c r="L106" s="11">
         <v>11569397560.449301</v>
       </c>
     </row>
-    <row r="107" spans="1:12">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -3366,21 +3392,21 @@
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
-      <c r="H107" s="12">
+      <c r="H107" s="10">
         <v>104</v>
       </c>
-      <c r="I107" s="13">
+      <c r="I107" s="11">
         <v>45726.491825262099</v>
       </c>
       <c r="J107" s="1"/>
-      <c r="K107" s="12">
+      <c r="K107" s="10">
         <v>52</v>
       </c>
-      <c r="L107" s="13">
+      <c r="L107" s="11">
         <v>11602498893.001101</v>
       </c>
     </row>
-    <row r="108" spans="1:12">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -3388,21 +3414,21 @@
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
       <c r="G108" s="1"/>
-      <c r="H108" s="12">
+      <c r="H108" s="10">
         <v>105</v>
       </c>
-      <c r="I108" s="13">
+      <c r="I108" s="11">
         <v>30484.3278835081</v>
       </c>
       <c r="J108" s="1"/>
-      <c r="K108" s="12">
+      <c r="K108" s="10">
         <v>52.5</v>
       </c>
-      <c r="L108" s="13">
+      <c r="L108" s="11">
         <v>11636017222.491899</v>
       </c>
     </row>
-    <row r="109" spans="1:12">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -3410,21 +3436,21 @@
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
-      <c r="H109" s="12">
+      <c r="H109" s="10">
         <v>106</v>
       </c>
-      <c r="I109" s="13">
+      <c r="I109" s="11">
         <v>20322.885255672001</v>
       </c>
       <c r="J109" s="1"/>
-      <c r="K109" s="12">
+      <c r="K109" s="10">
         <v>53</v>
       </c>
-      <c r="L109" s="13">
+      <c r="L109" s="11">
         <v>11669955606.057501</v>
       </c>
     </row>
-    <row r="110" spans="1:12">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -3432,21 +3458,21 @@
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
-      <c r="H110" s="12">
+      <c r="H110" s="10">
         <v>107</v>
       </c>
-      <c r="I110" s="13">
+      <c r="I110" s="11">
         <v>13548.590170448</v>
       </c>
       <c r="J110" s="1"/>
-      <c r="K110" s="12">
+      <c r="K110" s="10">
         <v>53.5</v>
       </c>
-      <c r="L110" s="13">
+      <c r="L110" s="11">
         <v>11704317142.657</v>
       </c>
     </row>
-    <row r="111" spans="1:12">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -3454,21 +3480,21 @@
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
       <c r="G111" s="1"/>
-      <c r="H111" s="12">
+      <c r="H111" s="10">
         <v>108</v>
       </c>
-      <c r="I111" s="13">
+      <c r="I111" s="11">
         <v>9032.3934469653595</v>
       </c>
       <c r="J111" s="1"/>
-      <c r="K111" s="12">
+      <c r="K111" s="10">
         <v>54</v>
       </c>
-      <c r="L111" s="13">
+      <c r="L111" s="11">
         <v>11739104973.514099</v>
       </c>
     </row>
-    <row r="112" spans="1:12">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -3476,21 +3502,21 @@
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
-      <c r="H112" s="12">
+      <c r="H112" s="10">
         <v>109</v>
       </c>
-      <c r="I112" s="13">
+      <c r="I112" s="11">
         <v>6021.5956313102397</v>
       </c>
       <c r="J112" s="1"/>
-      <c r="K112" s="12">
+      <c r="K112" s="10">
         <v>54.5</v>
       </c>
-      <c r="L112" s="13">
+      <c r="L112" s="11">
         <v>11774322288.434601</v>
       </c>
     </row>
-    <row r="113" spans="1:12">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -3498,21 +3524,21 @@
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
-      <c r="H113" s="12">
+      <c r="H113" s="10">
         <v>110</v>
       </c>
-      <c r="I113" s="13">
+      <c r="I113" s="11">
         <v>4014.3970875401601</v>
       </c>
       <c r="J113" s="1"/>
-      <c r="K113" s="12">
+      <c r="K113" s="10">
         <v>55</v>
       </c>
-      <c r="L113" s="13">
+      <c r="L113" s="11">
         <v>11809972320.462099</v>
       </c>
     </row>
-    <row r="114" spans="1:12">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -3520,21 +3546,21 @@
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
       <c r="G114" s="1"/>
-      <c r="H114" s="12">
+      <c r="H114" s="10">
         <v>111</v>
       </c>
-      <c r="I114" s="13">
+      <c r="I114" s="11">
         <v>2676.2647250267701</v>
       </c>
       <c r="J114" s="1"/>
-      <c r="K114" s="12">
+      <c r="K114" s="10">
         <v>55.5</v>
       </c>
-      <c r="L114" s="13">
+      <c r="L114" s="11">
         <v>11846058346.3407</v>
       </c>
     </row>
-    <row r="115" spans="1:12">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -3542,21 +3568,21 @@
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
       <c r="G115" s="1"/>
-      <c r="H115" s="12">
+      <c r="H115" s="10">
         <v>112</v>
       </c>
-      <c r="I115" s="13">
+      <c r="I115" s="11">
         <v>1784.17648335118</v>
       </c>
       <c r="J115" s="1"/>
-      <c r="K115" s="12">
+      <c r="K115" s="10">
         <v>56</v>
       </c>
-      <c r="L115" s="13">
+      <c r="L115" s="11">
         <v>11882583692.9086</v>
       </c>
     </row>
-    <row r="116" spans="1:12">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -3564,21 +3590,21 @@
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
       <c r="G116" s="1"/>
-      <c r="H116" s="12">
+      <c r="H116" s="10">
         <v>113</v>
       </c>
-      <c r="I116" s="13">
+      <c r="I116" s="11">
         <v>1189.45098890078</v>
       </c>
       <c r="J116" s="1"/>
-      <c r="K116" s="12">
+      <c r="K116" s="10">
         <v>56.5</v>
       </c>
-      <c r="L116" s="13">
+      <c r="L116" s="11">
         <v>11919551731.7244</v>
       </c>
     </row>
-    <row r="117" spans="1:12">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -3586,21 +3612,21 @@
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
       <c r="G117" s="1"/>
-      <c r="H117" s="12">
+      <c r="H117" s="10">
         <v>114</v>
       </c>
-      <c r="I117" s="13">
+      <c r="I117" s="11">
         <v>792.967325933859</v>
       </c>
       <c r="J117" s="1"/>
-      <c r="K117" s="12">
+      <c r="K117" s="10">
         <v>57</v>
       </c>
-      <c r="L117" s="13">
+      <c r="L117" s="11">
         <v>11956965879.553499</v>
       </c>
     </row>
-    <row r="118" spans="1:12">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -3608,21 +3634,21 @@
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
-      <c r="H118" s="12">
+      <c r="H118" s="10">
         <v>115</v>
       </c>
-      <c r="I118" s="13">
+      <c r="I118" s="11">
         <v>528.64488395590604</v>
       </c>
       <c r="J118" s="1"/>
-      <c r="K118" s="12">
+      <c r="K118" s="10">
         <v>57.5</v>
       </c>
-      <c r="L118" s="13">
+      <c r="L118" s="11">
         <v>11994829604.838699</v>
       </c>
     </row>
-    <row r="119" spans="1:12">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -3630,21 +3656,21 @@
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
-      <c r="H119" s="12">
+      <c r="H119" s="10">
         <v>116</v>
       </c>
-      <c r="I119" s="13">
+      <c r="I119" s="11">
         <v>352.42992263727001</v>
       </c>
       <c r="J119" s="1"/>
-      <c r="K119" s="12">
+      <c r="K119" s="10">
         <v>58</v>
       </c>
-      <c r="L119" s="13">
+      <c r="L119" s="11">
         <v>12033146422.298401</v>
       </c>
     </row>
-    <row r="120" spans="1:12">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -3652,21 +3678,21 @@
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
       <c r="G120" s="1"/>
-      <c r="H120" s="12">
+      <c r="H120" s="10">
         <v>117</v>
       </c>
-      <c r="I120" s="13">
+      <c r="I120" s="11">
         <v>234.95328175818</v>
       </c>
       <c r="J120" s="1"/>
-      <c r="K120" s="12">
+      <c r="K120" s="10">
         <v>58.5</v>
       </c>
-      <c r="L120" s="13">
+      <c r="L120" s="11">
         <v>12071919893.434999</v>
       </c>
     </row>
-    <row r="121" spans="1:12">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -3674,21 +3700,21 @@
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
       <c r="G121" s="1"/>
-      <c r="H121" s="12">
+      <c r="H121" s="10">
         <v>118</v>
       </c>
-      <c r="I121" s="13">
+      <c r="I121" s="11">
         <v>156.63552117212001</v>
       </c>
       <c r="J121" s="1"/>
-      <c r="K121" s="12">
+      <c r="K121" s="10">
         <v>59</v>
       </c>
-      <c r="L121" s="13">
+      <c r="L121" s="11">
         <v>12111153633.088699</v>
       </c>
     </row>
-    <row r="122" spans="1:12">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -3696,21 +3722,21 @@
       <c r="E122" s="1"/>
       <c r="F122" s="1"/>
       <c r="G122" s="1"/>
-      <c r="H122" s="12">
+      <c r="H122" s="10">
         <v>119</v>
       </c>
-      <c r="I122" s="13">
+      <c r="I122" s="11">
         <v>104.423680781413</v>
       </c>
       <c r="J122" s="1"/>
-      <c r="K122" s="12">
+      <c r="K122" s="10">
         <v>59.5</v>
       </c>
-      <c r="L122" s="13">
+      <c r="L122" s="11">
         <v>12150851304.0033</v>
       </c>
     </row>
-    <row r="123" spans="1:12" ht="15.75" thickBot="1">
+    <row r="123" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -3718,21 +3744,21 @@
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
       <c r="G123" s="1"/>
-      <c r="H123" s="14">
+      <c r="H123" s="12">
         <v>120</v>
       </c>
-      <c r="I123" s="15">
+      <c r="I123" s="13">
         <v>69.615787187609001</v>
       </c>
       <c r="J123" s="1"/>
-      <c r="K123" s="12">
+      <c r="K123" s="10">
         <v>60</v>
       </c>
-      <c r="L123" s="13">
+      <c r="L123" s="11">
         <v>12191016617.360901</v>
       </c>
     </row>
-    <row r="124" spans="1:12">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -3743,14 +3769,14 @@
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
       <c r="J124" s="1"/>
-      <c r="K124" s="12">
+      <c r="K124" s="10">
         <v>60.5</v>
       </c>
-      <c r="L124" s="13">
+      <c r="L124" s="11">
         <v>12231653339.4188</v>
       </c>
     </row>
-    <row r="125" spans="1:12">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -3761,14 +3787,14 @@
       <c r="H125" s="1"/>
       <c r="I125" s="1"/>
       <c r="J125" s="1"/>
-      <c r="K125" s="12">
+      <c r="K125" s="10">
         <v>61</v>
       </c>
-      <c r="L125" s="13">
+      <c r="L125" s="11">
         <v>12272085748.389</v>
       </c>
     </row>
-    <row r="126" spans="1:12">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -3779,14 +3805,14 @@
       <c r="H126" s="1"/>
       <c r="I126" s="1"/>
       <c r="J126" s="1"/>
-      <c r="K126" s="12">
+      <c r="K126" s="10">
         <v>61.5</v>
       </c>
-      <c r="L126" s="13">
+      <c r="L126" s="11">
         <v>12312310919.023899</v>
       </c>
     </row>
-    <row r="127" spans="1:12">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -3797,14 +3823,14 @@
       <c r="H127" s="1"/>
       <c r="I127" s="1"/>
       <c r="J127" s="1"/>
-      <c r="K127" s="12">
+      <c r="K127" s="10">
         <v>62</v>
       </c>
-      <c r="L127" s="13">
+      <c r="L127" s="11">
         <v>12352325929.5107</v>
       </c>
     </row>
-    <row r="128" spans="1:12">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -3815,14 +3841,14 @@
       <c r="H128" s="1"/>
       <c r="I128" s="1"/>
       <c r="J128" s="1"/>
-      <c r="K128" s="12">
+      <c r="K128" s="10">
         <v>62.5</v>
       </c>
-      <c r="L128" s="13">
+      <c r="L128" s="11">
         <v>12392127867.9307</v>
       </c>
     </row>
-    <row r="129" spans="1:12">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -3833,14 +3859,14 @@
       <c r="H129" s="1"/>
       <c r="I129" s="1"/>
       <c r="J129" s="1"/>
-      <c r="K129" s="12">
+      <c r="K129" s="10">
         <v>63</v>
       </c>
-      <c r="L129" s="13">
+      <c r="L129" s="11">
         <v>12431713832.641701</v>
       </c>
     </row>
-    <row r="130" spans="1:12">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -3851,14 +3877,14 @@
       <c r="H130" s="1"/>
       <c r="I130" s="1"/>
       <c r="J130" s="1"/>
-      <c r="K130" s="12">
+      <c r="K130" s="10">
         <v>63.5</v>
       </c>
-      <c r="L130" s="13">
+      <c r="L130" s="11">
         <v>12471080926.445</v>
       </c>
     </row>
-    <row r="131" spans="1:12">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -3869,14 +3895,14 @@
       <c r="H131" s="1"/>
       <c r="I131" s="1"/>
       <c r="J131" s="1"/>
-      <c r="K131" s="12">
+      <c r="K131" s="10">
         <v>64</v>
       </c>
-      <c r="L131" s="13">
+      <c r="L131" s="11">
         <v>12510226263.104601</v>
       </c>
     </row>
-    <row r="132" spans="1:12">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -3887,14 +3913,14 @@
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
       <c r="J132" s="1"/>
-      <c r="K132" s="12">
+      <c r="K132" s="10">
         <v>64.5</v>
       </c>
-      <c r="L132" s="13">
+      <c r="L132" s="11">
         <v>12549146967.7293</v>
       </c>
     </row>
-    <row r="133" spans="1:12">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -3905,14 +3931,14 @@
       <c r="H133" s="1"/>
       <c r="I133" s="1"/>
       <c r="J133" s="1"/>
-      <c r="K133" s="12">
+      <c r="K133" s="10">
         <v>65</v>
       </c>
-      <c r="L133" s="13">
+      <c r="L133" s="11">
         <v>12587840170.879801</v>
       </c>
     </row>
-    <row r="134" spans="1:12">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -3923,14 +3949,14 @@
       <c r="H134" s="1"/>
       <c r="I134" s="1"/>
       <c r="J134" s="1"/>
-      <c r="K134" s="12">
+      <c r="K134" s="10">
         <v>65.5</v>
       </c>
-      <c r="L134" s="13">
+      <c r="L134" s="11">
         <v>12626303015.1471</v>
       </c>
     </row>
-    <row r="135" spans="1:12">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -3941,14 +3967,14 @@
       <c r="H135" s="1"/>
       <c r="I135" s="1"/>
       <c r="J135" s="1"/>
-      <c r="K135" s="12">
+      <c r="K135" s="10">
         <v>66</v>
       </c>
-      <c r="L135" s="13">
+      <c r="L135" s="11">
         <v>12664532655.5333</v>
       </c>
     </row>
-    <row r="136" spans="1:12">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -3959,14 +3985,14 @@
       <c r="H136" s="1"/>
       <c r="I136" s="1"/>
       <c r="J136" s="1"/>
-      <c r="K136" s="12">
+      <c r="K136" s="10">
         <v>66.5</v>
       </c>
-      <c r="L136" s="13">
+      <c r="L136" s="11">
         <v>12702526253.499901</v>
       </c>
     </row>
-    <row r="137" spans="1:12">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -3977,14 +4003,14 @@
       <c r="H137" s="1"/>
       <c r="I137" s="1"/>
       <c r="J137" s="1"/>
-      <c r="K137" s="12">
+      <c r="K137" s="10">
         <v>67</v>
       </c>
-      <c r="L137" s="13">
+      <c r="L137" s="11">
         <v>12740280983.603201</v>
       </c>
     </row>
-    <row r="138" spans="1:12">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -3995,14 +4021,14 @@
       <c r="H138" s="1"/>
       <c r="I138" s="1"/>
       <c r="J138" s="1"/>
-      <c r="K138" s="12">
+      <c r="K138" s="10">
         <v>67.5</v>
       </c>
-      <c r="L138" s="13">
+      <c r="L138" s="11">
         <v>12777794033.8738</v>
       </c>
     </row>
-    <row r="139" spans="1:12">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -4013,14 +4039,14 @@
       <c r="H139" s="1"/>
       <c r="I139" s="1"/>
       <c r="J139" s="1"/>
-      <c r="K139" s="12">
+      <c r="K139" s="10">
         <v>68</v>
       </c>
-      <c r="L139" s="13">
+      <c r="L139" s="11">
         <v>12815062599.805901</v>
       </c>
     </row>
-    <row r="140" spans="1:12">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -4031,14 +4057,14 @@
       <c r="H140" s="1"/>
       <c r="I140" s="1"/>
       <c r="J140" s="1"/>
-      <c r="K140" s="12">
+      <c r="K140" s="10">
         <v>68.5</v>
       </c>
-      <c r="L140" s="13">
+      <c r="L140" s="11">
         <v>12852083891.049</v>
       </c>
     </row>
-    <row r="141" spans="1:12">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -4049,14 +4075,14 @@
       <c r="H141" s="1"/>
       <c r="I141" s="1"/>
       <c r="J141" s="1"/>
-      <c r="K141" s="12">
+      <c r="K141" s="10">
         <v>69</v>
       </c>
-      <c r="L141" s="13">
+      <c r="L141" s="11">
         <v>12888855131.784599</v>
       </c>
     </row>
-    <row r="142" spans="1:12">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -4067,14 +4093,14 @@
       <c r="H142" s="1"/>
       <c r="I142" s="1"/>
       <c r="J142" s="1"/>
-      <c r="K142" s="12">
+      <c r="K142" s="10">
         <v>69.5</v>
       </c>
-      <c r="L142" s="13">
+      <c r="L142" s="11">
         <v>12925373554.658001</v>
       </c>
     </row>
-    <row r="143" spans="1:12">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -4085,14 +4111,14 @@
       <c r="H143" s="1"/>
       <c r="I143" s="1"/>
       <c r="J143" s="1"/>
-      <c r="K143" s="12">
+      <c r="K143" s="10">
         <v>70</v>
       </c>
-      <c r="L143" s="13">
+      <c r="L143" s="11">
         <v>12961636407.5238</v>
       </c>
     </row>
-    <row r="144" spans="1:12">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -4103,14 +4129,14 @@
       <c r="H144" s="1"/>
       <c r="I144" s="1"/>
       <c r="J144" s="1"/>
-      <c r="K144" s="12">
+      <c r="K144" s="10">
         <v>70.5</v>
       </c>
-      <c r="L144" s="13">
+      <c r="L144" s="11">
         <v>12997640953.8204</v>
       </c>
     </row>
-    <row r="145" spans="1:12">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -4121,14 +4147,14 @@
       <c r="H145" s="1"/>
       <c r="I145" s="1"/>
       <c r="J145" s="1"/>
-      <c r="K145" s="12">
+      <c r="K145" s="10">
         <v>71</v>
       </c>
-      <c r="L145" s="13">
+      <c r="L145" s="11">
         <v>13033384466.443399</v>
       </c>
     </row>
-    <row r="146" spans="1:12">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -4139,14 +4165,14 @@
       <c r="H146" s="1"/>
       <c r="I146" s="1"/>
       <c r="J146" s="1"/>
-      <c r="K146" s="12">
+      <c r="K146" s="10">
         <v>71.5</v>
       </c>
-      <c r="L146" s="13">
+      <c r="L146" s="11">
         <v>13068864234.5446</v>
       </c>
     </row>
-    <row r="147" spans="1:12">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -4157,14 +4183,14 @@
       <c r="H147" s="1"/>
       <c r="I147" s="1"/>
       <c r="J147" s="1"/>
-      <c r="K147" s="12">
+      <c r="K147" s="10">
         <v>72</v>
       </c>
-      <c r="L147" s="13">
+      <c r="L147" s="11">
         <v>13104077563.902599</v>
       </c>
     </row>
-    <row r="148" spans="1:12">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -4175,14 +4201,14 @@
       <c r="H148" s="1"/>
       <c r="I148" s="1"/>
       <c r="J148" s="1"/>
-      <c r="K148" s="12">
+      <c r="K148" s="10">
         <v>72.5</v>
       </c>
-      <c r="L148" s="13">
+      <c r="L148" s="11">
         <v>13139021770.7397</v>
       </c>
     </row>
-    <row r="149" spans="1:12">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -4193,14 +4219,14 @@
       <c r="H149" s="1"/>
       <c r="I149" s="1"/>
       <c r="J149" s="1"/>
-      <c r="K149" s="12">
+      <c r="K149" s="10">
         <v>73</v>
       </c>
-      <c r="L149" s="13">
+      <c r="L149" s="11">
         <v>10949184808.949699</v>
       </c>
     </row>
-    <row r="150" spans="1:12">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -4211,14 +4237,14 @@
       <c r="H150" s="1"/>
       <c r="I150" s="1"/>
       <c r="J150" s="1"/>
-      <c r="K150" s="12">
+      <c r="K150" s="10">
         <v>73.5</v>
       </c>
-      <c r="L150" s="13">
+      <c r="L150" s="11">
         <v>9124320674.1248207</v>
       </c>
     </row>
-    <row r="151" spans="1:12">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -4229,14 +4255,14 @@
       <c r="H151" s="1"/>
       <c r="I151" s="1"/>
       <c r="J151" s="1"/>
-      <c r="K151" s="12">
+      <c r="K151" s="10">
         <v>74</v>
       </c>
-      <c r="L151" s="13">
+      <c r="L151" s="11">
         <v>7603600561.7706804</v>
       </c>
     </row>
-    <row r="152" spans="1:12">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -4247,14 +4273,14 @@
       <c r="H152" s="1"/>
       <c r="I152" s="1"/>
       <c r="J152" s="1"/>
-      <c r="K152" s="12">
+      <c r="K152" s="10">
         <v>74.5</v>
       </c>
-      <c r="L152" s="13">
+      <c r="L152" s="11">
         <v>6336333801.4755697</v>
       </c>
     </row>
-    <row r="153" spans="1:12">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -4265,14 +4291,14 @@
       <c r="H153" s="1"/>
       <c r="I153" s="1"/>
       <c r="J153" s="1"/>
-      <c r="K153" s="12">
+      <c r="K153" s="10">
         <v>75</v>
       </c>
-      <c r="L153" s="13">
+      <c r="L153" s="11">
         <v>5280278167.8963099</v>
       </c>
     </row>
-    <row r="154" spans="1:12">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -4283,14 +4309,14 @@
       <c r="H154" s="1"/>
       <c r="I154" s="1"/>
       <c r="J154" s="1"/>
-      <c r="K154" s="12">
+      <c r="K154" s="10">
         <v>75.5</v>
       </c>
-      <c r="L154" s="13">
+      <c r="L154" s="11">
         <v>4400231806.5802498</v>
       </c>
     </row>
-    <row r="155" spans="1:12">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -4301,14 +4327,14 @@
       <c r="H155" s="1"/>
       <c r="I155" s="1"/>
       <c r="J155" s="1"/>
-      <c r="K155" s="12">
+      <c r="K155" s="10">
         <v>76</v>
       </c>
-      <c r="L155" s="13">
+      <c r="L155" s="11">
         <v>3666859838.8168802</v>
       </c>
     </row>
-    <row r="156" spans="1:12">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -4319,14 +4345,14 @@
       <c r="H156" s="1"/>
       <c r="I156" s="1"/>
       <c r="J156" s="1"/>
-      <c r="K156" s="12">
+      <c r="K156" s="10">
         <v>76.5</v>
       </c>
-      <c r="L156" s="13">
+      <c r="L156" s="11">
         <v>3055716532.3474002</v>
       </c>
     </row>
-    <row r="157" spans="1:12">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -4337,14 +4363,14 @@
       <c r="H157" s="1"/>
       <c r="I157" s="1"/>
       <c r="J157" s="1"/>
-      <c r="K157" s="12">
+      <c r="K157" s="10">
         <v>77</v>
       </c>
-      <c r="L157" s="13">
+      <c r="L157" s="11">
         <v>2546430443.6228299</v>
       </c>
     </row>
-    <row r="158" spans="1:12">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -4355,14 +4381,14 @@
       <c r="H158" s="1"/>
       <c r="I158" s="1"/>
       <c r="J158" s="1"/>
-      <c r="K158" s="12">
+      <c r="K158" s="10">
         <v>77.5</v>
       </c>
-      <c r="L158" s="13">
+      <c r="L158" s="11">
         <v>2122025369.6856899</v>
       </c>
     </row>
-    <row r="159" spans="1:12">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -4373,14 +4399,14 @@
       <c r="H159" s="1"/>
       <c r="I159" s="1"/>
       <c r="J159" s="1"/>
-      <c r="K159" s="12">
+      <c r="K159" s="10">
         <v>78</v>
       </c>
-      <c r="L159" s="13">
+      <c r="L159" s="11">
         <v>1768354474.73808</v>
       </c>
     </row>
-    <row r="160" spans="1:12">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -4391,14 +4417,14 @@
       <c r="H160" s="1"/>
       <c r="I160" s="1"/>
       <c r="J160" s="1"/>
-      <c r="K160" s="12">
+      <c r="K160" s="10">
         <v>78.5</v>
       </c>
-      <c r="L160" s="13">
+      <c r="L160" s="11">
         <v>1473628728.9484</v>
       </c>
     </row>
-    <row r="161" spans="1:12">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -4409,14 +4435,14 @@
       <c r="H161" s="1"/>
       <c r="I161" s="1"/>
       <c r="J161" s="1"/>
-      <c r="K161" s="12">
+      <c r="K161" s="10">
         <v>79</v>
       </c>
-      <c r="L161" s="13">
+      <c r="L161" s="11">
         <v>1228023940.7903299</v>
       </c>
     </row>
-    <row r="162" spans="1:12">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -4427,14 +4453,14 @@
       <c r="H162" s="1"/>
       <c r="I162" s="1"/>
       <c r="J162" s="1"/>
-      <c r="K162" s="12">
+      <c r="K162" s="10">
         <v>79.5</v>
       </c>
-      <c r="L162" s="13">
+      <c r="L162" s="11">
         <v>1023353283.99194</v>
       </c>
     </row>
-    <row r="163" spans="1:12">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -4445,14 +4471,14 @@
       <c r="H163" s="1"/>
       <c r="I163" s="1"/>
       <c r="J163" s="1"/>
-      <c r="K163" s="12">
+      <c r="K163" s="10">
         <v>80</v>
       </c>
-      <c r="L163" s="13">
+      <c r="L163" s="11">
         <v>852794403.32661998</v>
       </c>
     </row>
-    <row r="164" spans="1:12">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -4463,14 +4489,14 @@
       <c r="H164" s="1"/>
       <c r="I164" s="1"/>
       <c r="J164" s="1"/>
-      <c r="K164" s="12">
+      <c r="K164" s="10">
         <v>80.5</v>
       </c>
-      <c r="L164" s="13">
+      <c r="L164" s="11">
         <v>710662002.77218294</v>
       </c>
     </row>
-    <row r="165" spans="1:12">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -4481,14 +4507,14 @@
       <c r="H165" s="1"/>
       <c r="I165" s="1"/>
       <c r="J165" s="1"/>
-      <c r="K165" s="12">
+      <c r="K165" s="10">
         <v>81</v>
       </c>
-      <c r="L165" s="13">
+      <c r="L165" s="11">
         <v>592218335.64348602</v>
       </c>
     </row>
-    <row r="166" spans="1:12">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -4499,14 +4525,14 @@
       <c r="H166" s="1"/>
       <c r="I166" s="1"/>
       <c r="J166" s="1"/>
-      <c r="K166" s="12">
+      <c r="K166" s="10">
         <v>81.5</v>
       </c>
-      <c r="L166" s="13">
+      <c r="L166" s="11">
         <v>493515279.702905</v>
       </c>
     </row>
-    <row r="167" spans="1:12">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -4517,14 +4543,14 @@
       <c r="H167" s="1"/>
       <c r="I167" s="1"/>
       <c r="J167" s="1"/>
-      <c r="K167" s="12">
+      <c r="K167" s="10">
         <v>82</v>
       </c>
-      <c r="L167" s="13">
+      <c r="L167" s="11">
         <v>411262733.08575398</v>
       </c>
     </row>
-    <row r="168" spans="1:12">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -4535,14 +4561,14 @@
       <c r="H168" s="1"/>
       <c r="I168" s="1"/>
       <c r="J168" s="1"/>
-      <c r="K168" s="12">
+      <c r="K168" s="10">
         <v>82.5</v>
       </c>
-      <c r="L168" s="13">
+      <c r="L168" s="11">
         <v>342718944.23812801</v>
       </c>
     </row>
-    <row r="169" spans="1:12">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -4553,14 +4579,14 @@
       <c r="H169" s="1"/>
       <c r="I169" s="1"/>
       <c r="J169" s="1"/>
-      <c r="K169" s="12">
+      <c r="K169" s="10">
         <v>83</v>
       </c>
-      <c r="L169" s="13">
+      <c r="L169" s="11">
         <v>285599120.19844002</v>
       </c>
     </row>
-    <row r="170" spans="1:12">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -4571,14 +4597,14 @@
       <c r="H170" s="1"/>
       <c r="I170" s="1"/>
       <c r="J170" s="1"/>
-      <c r="K170" s="12">
+      <c r="K170" s="10">
         <v>83.5</v>
       </c>
-      <c r="L170" s="13">
+      <c r="L170" s="11">
         <v>237999266.83203301</v>
       </c>
     </row>
-    <row r="171" spans="1:12">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -4589,14 +4615,14 @@
       <c r="H171" s="1"/>
       <c r="I171" s="1"/>
       <c r="J171" s="1"/>
-      <c r="K171" s="12">
+      <c r="K171" s="10">
         <v>84</v>
       </c>
-      <c r="L171" s="13">
+      <c r="L171" s="11">
         <v>198332722.360028</v>
       </c>
     </row>
-    <row r="172" spans="1:12">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -4607,14 +4633,14 @@
       <c r="H172" s="1"/>
       <c r="I172" s="1"/>
       <c r="J172" s="1"/>
-      <c r="K172" s="12">
+      <c r="K172" s="10">
         <v>84.5</v>
       </c>
-      <c r="L172" s="13">
+      <c r="L172" s="11">
         <v>165277268.633356</v>
       </c>
     </row>
-    <row r="173" spans="1:12">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -4625,14 +4651,14 @@
       <c r="H173" s="1"/>
       <c r="I173" s="1"/>
       <c r="J173" s="1"/>
-      <c r="K173" s="12">
+      <c r="K173" s="10">
         <v>85</v>
       </c>
-      <c r="L173" s="13">
+      <c r="L173" s="11">
         <v>137731057.194464</v>
       </c>
     </row>
-    <row r="174" spans="1:12">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -4643,14 +4669,14 @@
       <c r="H174" s="1"/>
       <c r="I174" s="1"/>
       <c r="J174" s="1"/>
-      <c r="K174" s="12">
+      <c r="K174" s="10">
         <v>85.5</v>
       </c>
-      <c r="L174" s="13">
+      <c r="L174" s="11">
         <v>114775880.995386</v>
       </c>
     </row>
-    <row r="175" spans="1:12">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -4661,14 +4687,14 @@
       <c r="H175" s="1"/>
       <c r="I175" s="1"/>
       <c r="J175" s="1"/>
-      <c r="K175" s="12">
+      <c r="K175" s="10">
         <v>86</v>
       </c>
-      <c r="L175" s="13">
+      <c r="L175" s="11">
         <v>95646567.4961555</v>
       </c>
     </row>
-    <row r="176" spans="1:12">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -4679,14 +4705,14 @@
       <c r="H176" s="1"/>
       <c r="I176" s="1"/>
       <c r="J176" s="1"/>
-      <c r="K176" s="12">
+      <c r="K176" s="10">
         <v>86.5</v>
       </c>
-      <c r="L176" s="13">
+      <c r="L176" s="11">
         <v>79705472.913462907</v>
       </c>
     </row>
-    <row r="177" spans="1:12">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -4697,14 +4723,14 @@
       <c r="H177" s="1"/>
       <c r="I177" s="1"/>
       <c r="J177" s="1"/>
-      <c r="K177" s="12">
+      <c r="K177" s="10">
         <v>87</v>
       </c>
-      <c r="L177" s="13">
+      <c r="L177" s="11">
         <v>66421227.427885801</v>
       </c>
     </row>
-    <row r="178" spans="1:12">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -4715,14 +4741,14 @@
       <c r="H178" s="1"/>
       <c r="I178" s="1"/>
       <c r="J178" s="1"/>
-      <c r="K178" s="12">
+      <c r="K178" s="10">
         <v>87.5</v>
       </c>
-      <c r="L178" s="13">
+      <c r="L178" s="11">
         <v>55351022.856571503</v>
       </c>
     </row>
-    <row r="179" spans="1:12">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -4733,14 +4759,14 @@
       <c r="H179" s="1"/>
       <c r="I179" s="1"/>
       <c r="J179" s="1"/>
-      <c r="K179" s="12">
+      <c r="K179" s="10">
         <v>88</v>
       </c>
-      <c r="L179" s="13">
+      <c r="L179" s="11">
         <v>46125852.380476199</v>
       </c>
     </row>
-    <row r="180" spans="1:12">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -4751,14 +4777,14 @@
       <c r="H180" s="1"/>
       <c r="I180" s="1"/>
       <c r="J180" s="1"/>
-      <c r="K180" s="12">
+      <c r="K180" s="10">
         <v>88.5</v>
       </c>
-      <c r="L180" s="13">
+      <c r="L180" s="11">
         <v>38438210.317063503</v>
       </c>
     </row>
-    <row r="181" spans="1:12">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -4769,14 +4795,14 @@
       <c r="H181" s="1"/>
       <c r="I181" s="1"/>
       <c r="J181" s="1"/>
-      <c r="K181" s="12">
+      <c r="K181" s="10">
         <v>89</v>
       </c>
-      <c r="L181" s="13">
+      <c r="L181" s="11">
         <v>32031841.930886202</v>
       </c>
     </row>
-    <row r="182" spans="1:12">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -4787,14 +4813,14 @@
       <c r="H182" s="1"/>
       <c r="I182" s="1"/>
       <c r="J182" s="1"/>
-      <c r="K182" s="12">
+      <c r="K182" s="10">
         <v>89.5</v>
       </c>
-      <c r="L182" s="13">
+      <c r="L182" s="11">
         <v>26693201.609071899</v>
       </c>
     </row>
-    <row r="183" spans="1:12">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -4805,14 +4831,14 @@
       <c r="H183" s="1"/>
       <c r="I183" s="1"/>
       <c r="J183" s="1"/>
-      <c r="K183" s="12">
+      <c r="K183" s="10">
         <v>90</v>
       </c>
-      <c r="L183" s="13">
+      <c r="L183" s="11">
         <v>22244334.6742265</v>
       </c>
     </row>
-    <row r="184" spans="1:12">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -4823,14 +4849,14 @@
       <c r="H184" s="1"/>
       <c r="I184" s="1"/>
       <c r="J184" s="1"/>
-      <c r="K184" s="12">
+      <c r="K184" s="10">
         <v>90.5</v>
       </c>
-      <c r="L184" s="13">
+      <c r="L184" s="11">
         <v>18536945.561855499</v>
       </c>
     </row>
-    <row r="185" spans="1:12">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -4841,14 +4867,14 @@
       <c r="H185" s="1"/>
       <c r="I185" s="1"/>
       <c r="J185" s="1"/>
-      <c r="K185" s="12">
+      <c r="K185" s="10">
         <v>91</v>
       </c>
-      <c r="L185" s="13">
+      <c r="L185" s="11">
         <v>15447454.6348795</v>
       </c>
     </row>
-    <row r="186" spans="1:12">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -4859,14 +4885,14 @@
       <c r="H186" s="1"/>
       <c r="I186" s="1"/>
       <c r="J186" s="1"/>
-      <c r="K186" s="12">
+      <c r="K186" s="10">
         <v>91.5</v>
       </c>
-      <c r="L186" s="13">
+      <c r="L186" s="11">
         <v>12872878.8623996</v>
       </c>
     </row>
-    <row r="187" spans="1:12">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -4877,14 +4903,14 @@
       <c r="H187" s="1"/>
       <c r="I187" s="1"/>
       <c r="J187" s="1"/>
-      <c r="K187" s="12">
+      <c r="K187" s="10">
         <v>92</v>
       </c>
-      <c r="L187" s="13">
+      <c r="L187" s="11">
         <v>10727399.051999699</v>
       </c>
     </row>
-    <row r="188" spans="1:12">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -4895,14 +4921,14 @@
       <c r="H188" s="1"/>
       <c r="I188" s="1"/>
       <c r="J188" s="1"/>
-      <c r="K188" s="12">
+      <c r="K188" s="10">
         <v>92.5</v>
       </c>
-      <c r="L188" s="13">
+      <c r="L188" s="11">
         <v>8939499.2099997494</v>
       </c>
     </row>
-    <row r="189" spans="1:12">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -4913,14 +4939,14 @@
       <c r="H189" s="1"/>
       <c r="I189" s="1"/>
       <c r="J189" s="1"/>
-      <c r="K189" s="12">
+      <c r="K189" s="10">
         <v>93</v>
       </c>
-      <c r="L189" s="13">
+      <c r="L189" s="11">
         <v>7449582.6749997996</v>
       </c>
     </row>
-    <row r="190" spans="1:12">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -4931,14 +4957,14 @@
       <c r="H190" s="1"/>
       <c r="I190" s="1"/>
       <c r="J190" s="1"/>
-      <c r="K190" s="12">
+      <c r="K190" s="10">
         <v>93.5</v>
       </c>
-      <c r="L190" s="13">
+      <c r="L190" s="11">
         <v>6207985.5624998296</v>
       </c>
     </row>
-    <row r="191" spans="1:12">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -4949,14 +4975,14 @@
       <c r="H191" s="1"/>
       <c r="I191" s="1"/>
       <c r="J191" s="1"/>
-      <c r="K191" s="12">
+      <c r="K191" s="10">
         <v>94</v>
       </c>
-      <c r="L191" s="13">
+      <c r="L191" s="11">
         <v>5173321.3020831896</v>
       </c>
     </row>
-    <row r="192" spans="1:12">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -4967,14 +4993,14 @@
       <c r="H192" s="1"/>
       <c r="I192" s="1"/>
       <c r="J192" s="1"/>
-      <c r="K192" s="12">
+      <c r="K192" s="10">
         <v>94.5</v>
       </c>
-      <c r="L192" s="13">
+      <c r="L192" s="11">
         <v>4311101.0850693202</v>
       </c>
     </row>
-    <row r="193" spans="1:12">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -4985,14 +5011,14 @@
       <c r="H193" s="1"/>
       <c r="I193" s="1"/>
       <c r="J193" s="1"/>
-      <c r="K193" s="12">
+      <c r="K193" s="10">
         <v>95</v>
       </c>
-      <c r="L193" s="13">
+      <c r="L193" s="11">
         <v>3592584.2375577702</v>
       </c>
     </row>
-    <row r="194" spans="1:12">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -5003,14 +5029,14 @@
       <c r="H194" s="1"/>
       <c r="I194" s="1"/>
       <c r="J194" s="1"/>
-      <c r="K194" s="12">
+      <c r="K194" s="10">
         <v>95.5</v>
       </c>
-      <c r="L194" s="13">
+      <c r="L194" s="11">
         <v>2993820.1979648098</v>
       </c>
     </row>
-    <row r="195" spans="1:12">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -5021,14 +5047,14 @@
       <c r="H195" s="1"/>
       <c r="I195" s="1"/>
       <c r="J195" s="1"/>
-      <c r="K195" s="12">
+      <c r="K195" s="10">
         <v>96</v>
       </c>
-      <c r="L195" s="13">
+      <c r="L195" s="11">
         <v>2494850.1649706699</v>
       </c>
     </row>
-    <row r="196" spans="1:12">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -5039,14 +5065,14 @@
       <c r="H196" s="1"/>
       <c r="I196" s="1"/>
       <c r="J196" s="1"/>
-      <c r="K196" s="12">
+      <c r="K196" s="10">
         <v>96.5</v>
       </c>
-      <c r="L196" s="13">
+      <c r="L196" s="11">
         <v>2079041.80414223</v>
       </c>
     </row>
-    <row r="197" spans="1:12">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -5057,14 +5083,14 @@
       <c r="H197" s="1"/>
       <c r="I197" s="1"/>
       <c r="J197" s="1"/>
-      <c r="K197" s="12">
+      <c r="K197" s="10">
         <v>97</v>
       </c>
-      <c r="L197" s="13">
+      <c r="L197" s="11">
         <v>1732534.83678519</v>
       </c>
     </row>
-    <row r="198" spans="1:12">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -5075,14 +5101,14 @@
       <c r="H198" s="1"/>
       <c r="I198" s="1"/>
       <c r="J198" s="1"/>
-      <c r="K198" s="12">
+      <c r="K198" s="10">
         <v>97.5</v>
       </c>
-      <c r="L198" s="13">
+      <c r="L198" s="11">
         <v>1443779.03065432</v>
       </c>
     </row>
-    <row r="199" spans="1:12">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -5093,14 +5119,14 @@
       <c r="H199" s="1"/>
       <c r="I199" s="1"/>
       <c r="J199" s="1"/>
-      <c r="K199" s="12">
+      <c r="K199" s="10">
         <v>98</v>
       </c>
-      <c r="L199" s="13">
+      <c r="L199" s="11">
         <v>1203149.1922119299</v>
       </c>
     </row>
-    <row r="200" spans="1:12">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -5111,14 +5137,14 @@
       <c r="H200" s="1"/>
       <c r="I200" s="1"/>
       <c r="J200" s="1"/>
-      <c r="K200" s="12">
+      <c r="K200" s="10">
         <v>98.5</v>
       </c>
-      <c r="L200" s="13">
+      <c r="L200" s="11">
         <v>1002624.32684328</v>
       </c>
     </row>
-    <row r="201" spans="1:12">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -5129,14 +5155,14 @@
       <c r="H201" s="1"/>
       <c r="I201" s="1"/>
       <c r="J201" s="1"/>
-      <c r="K201" s="12">
+      <c r="K201" s="10">
         <v>99</v>
       </c>
-      <c r="L201" s="13">
+      <c r="L201" s="11">
         <v>835520.272369402</v>
       </c>
     </row>
-    <row r="202" spans="1:12">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -5147,14 +5173,14 @@
       <c r="H202" s="1"/>
       <c r="I202" s="1"/>
       <c r="J202" s="1"/>
-      <c r="K202" s="12">
+      <c r="K202" s="10">
         <v>99.5</v>
       </c>
-      <c r="L202" s="13">
+      <c r="L202" s="11">
         <v>696266.89364116802</v>
       </c>
     </row>
-    <row r="203" spans="1:12">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -5165,14 +5191,14 @@
       <c r="H203" s="1"/>
       <c r="I203" s="1"/>
       <c r="J203" s="1"/>
-      <c r="K203" s="12">
+      <c r="K203" s="10">
         <v>100</v>
       </c>
-      <c r="L203" s="13">
+      <c r="L203" s="11">
         <v>580222.41136764002</v>
       </c>
     </row>
-    <row r="204" spans="1:12">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -5183,14 +5209,14 @@
       <c r="H204" s="1"/>
       <c r="I204" s="1"/>
       <c r="J204" s="1"/>
-      <c r="K204" s="12">
+      <c r="K204" s="10">
         <v>100.5</v>
       </c>
-      <c r="L204" s="13">
+      <c r="L204" s="11">
         <v>483518.67613969999</v>
       </c>
     </row>
-    <row r="205" spans="1:12">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -5201,14 +5227,14 @@
       <c r="H205" s="1"/>
       <c r="I205" s="1"/>
       <c r="J205" s="1"/>
-      <c r="K205" s="12">
+      <c r="K205" s="10">
         <v>101</v>
       </c>
-      <c r="L205" s="13">
+      <c r="L205" s="11">
         <v>402932.23011641699</v>
       </c>
     </row>
-    <row r="206" spans="1:12">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -5219,14 +5245,14 @@
       <c r="H206" s="1"/>
       <c r="I206" s="1"/>
       <c r="J206" s="1"/>
-      <c r="K206" s="12">
+      <c r="K206" s="10">
         <v>101.5</v>
       </c>
-      <c r="L206" s="13">
+      <c r="L206" s="11">
         <v>335776.858430347</v>
       </c>
     </row>
-    <row r="207" spans="1:12">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -5237,14 +5263,14 @@
       <c r="H207" s="1"/>
       <c r="I207" s="1"/>
       <c r="J207" s="1"/>
-      <c r="K207" s="12">
+      <c r="K207" s="10">
         <v>102</v>
       </c>
-      <c r="L207" s="13">
+      <c r="L207" s="11">
         <v>279814.04869195598</v>
       </c>
     </row>
-    <row r="208" spans="1:12">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -5255,14 +5281,14 @@
       <c r="H208" s="1"/>
       <c r="I208" s="1"/>
       <c r="J208" s="1"/>
-      <c r="K208" s="12">
+      <c r="K208" s="10">
         <v>102.5</v>
       </c>
-      <c r="L208" s="13">
+      <c r="L208" s="11">
         <v>233178.373909963</v>
       </c>
     </row>
-    <row r="209" spans="1:12">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -5273,14 +5299,14 @@
       <c r="H209" s="1"/>
       <c r="I209" s="1"/>
       <c r="J209" s="1"/>
-      <c r="K209" s="12">
+      <c r="K209" s="10">
         <v>103</v>
       </c>
-      <c r="L209" s="13">
+      <c r="L209" s="11">
         <v>194315.31159163601</v>
       </c>
     </row>
-    <row r="210" spans="1:12">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -5291,14 +5317,14 @@
       <c r="H210" s="1"/>
       <c r="I210" s="1"/>
       <c r="J210" s="1"/>
-      <c r="K210" s="12">
+      <c r="K210" s="10">
         <v>103.5</v>
       </c>
-      <c r="L210" s="13">
+      <c r="L210" s="11">
         <v>161929.426326363</v>
       </c>
     </row>
-    <row r="211" spans="1:12">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -5309,14 +5335,14 @@
       <c r="H211" s="1"/>
       <c r="I211" s="1"/>
       <c r="J211" s="1"/>
-      <c r="K211" s="12">
+      <c r="K211" s="10">
         <v>104</v>
       </c>
-      <c r="L211" s="13">
+      <c r="L211" s="11">
         <v>134941.188605303</v>
       </c>
     </row>
-    <row r="212" spans="1:12">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -5327,14 +5353,14 @@
       <c r="H212" s="1"/>
       <c r="I212" s="1"/>
       <c r="J212" s="1"/>
-      <c r="K212" s="12">
+      <c r="K212" s="10">
         <v>104.5</v>
       </c>
-      <c r="L212" s="13">
+      <c r="L212" s="11">
         <v>112450.99050441899</v>
       </c>
     </row>
-    <row r="213" spans="1:12">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -5345,14 +5371,14 @@
       <c r="H213" s="1"/>
       <c r="I213" s="1"/>
       <c r="J213" s="1"/>
-      <c r="K213" s="12">
+      <c r="K213" s="10">
         <v>105</v>
       </c>
-      <c r="L213" s="13">
+      <c r="L213" s="11">
         <v>93709.158753682597</v>
       </c>
     </row>
-    <row r="214" spans="1:12">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -5363,14 +5389,14 @@
       <c r="H214" s="1"/>
       <c r="I214" s="1"/>
       <c r="J214" s="1"/>
-      <c r="K214" s="12">
+      <c r="K214" s="10">
         <v>105.5</v>
       </c>
-      <c r="L214" s="13">
+      <c r="L214" s="11">
         <v>78090.965628068807</v>
       </c>
     </row>
-    <row r="215" spans="1:12">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -5381,14 +5407,14 @@
       <c r="H215" s="1"/>
       <c r="I215" s="1"/>
       <c r="J215" s="1"/>
-      <c r="K215" s="12">
+      <c r="K215" s="10">
         <v>106</v>
       </c>
-      <c r="L215" s="13">
+      <c r="L215" s="11">
         <v>65075.804690057303</v>
       </c>
     </row>
-    <row r="216" spans="1:12">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -5399,14 +5425,14 @@
       <c r="H216" s="1"/>
       <c r="I216" s="1"/>
       <c r="J216" s="1"/>
-      <c r="K216" s="12">
+      <c r="K216" s="10">
         <v>106.5</v>
       </c>
-      <c r="L216" s="13">
+      <c r="L216" s="11">
         <v>54229.837241714398</v>
       </c>
     </row>
-    <row r="217" spans="1:12">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -5417,14 +5443,14 @@
       <c r="H217" s="1"/>
       <c r="I217" s="1"/>
       <c r="J217" s="1"/>
-      <c r="K217" s="12">
+      <c r="K217" s="10">
         <v>107</v>
       </c>
-      <c r="L217" s="13">
+      <c r="L217" s="11">
         <v>45191.531034762003</v>
       </c>
     </row>
-    <row r="218" spans="1:12">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -5435,14 +5461,14 @@
       <c r="H218" s="1"/>
       <c r="I218" s="1"/>
       <c r="J218" s="1"/>
-      <c r="K218" s="12">
+      <c r="K218" s="10">
         <v>107.5</v>
       </c>
-      <c r="L218" s="13">
+      <c r="L218" s="11">
         <v>37659.609195634999</v>
       </c>
     </row>
-    <row r="219" spans="1:12">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -5453,14 +5479,14 @@
       <c r="H219" s="1"/>
       <c r="I219" s="1"/>
       <c r="J219" s="1"/>
-      <c r="K219" s="12">
+      <c r="K219" s="10">
         <v>108</v>
       </c>
-      <c r="L219" s="13">
+      <c r="L219" s="11">
         <v>31383.007663029199</v>
       </c>
     </row>
-    <row r="220" spans="1:12">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -5471,14 +5497,14 @@
       <c r="H220" s="1"/>
       <c r="I220" s="1"/>
       <c r="J220" s="1"/>
-      <c r="K220" s="12">
+      <c r="K220" s="10">
         <v>108.5</v>
       </c>
-      <c r="L220" s="13">
+      <c r="L220" s="11">
         <v>26152.5063858576</v>
       </c>
     </row>
-    <row r="221" spans="1:12">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -5489,14 +5515,14 @@
       <c r="H221" s="1"/>
       <c r="I221" s="1"/>
       <c r="J221" s="1"/>
-      <c r="K221" s="12">
+      <c r="K221" s="10">
         <v>109</v>
       </c>
-      <c r="L221" s="13">
+      <c r="L221" s="11">
         <v>21793.755321548</v>
       </c>
     </row>
-    <row r="222" spans="1:12">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -5507,14 +5533,14 @@
       <c r="H222" s="1"/>
       <c r="I222" s="1"/>
       <c r="J222" s="1"/>
-      <c r="K222" s="12">
+      <c r="K222" s="10">
         <v>109.5</v>
       </c>
-      <c r="L222" s="13">
+      <c r="L222" s="11">
         <v>18161.462767956698</v>
       </c>
     </row>
-    <row r="223" spans="1:12">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -5525,14 +5551,14 @@
       <c r="H223" s="1"/>
       <c r="I223" s="1"/>
       <c r="J223" s="1"/>
-      <c r="K223" s="12">
+      <c r="K223" s="10">
         <v>110</v>
       </c>
-      <c r="L223" s="13">
+      <c r="L223" s="11">
         <v>15134.5523066306</v>
       </c>
     </row>
-    <row r="224" spans="1:12">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -5543,14 +5569,14 @@
       <c r="H224" s="1"/>
       <c r="I224" s="1"/>
       <c r="J224" s="1"/>
-      <c r="K224" s="12">
+      <c r="K224" s="10">
         <v>110.5</v>
       </c>
-      <c r="L224" s="13">
+      <c r="L224" s="11">
         <v>12612.126922192099</v>
       </c>
     </row>
-    <row r="225" spans="1:12">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
@@ -5561,14 +5587,14 @@
       <c r="H225" s="1"/>
       <c r="I225" s="1"/>
       <c r="J225" s="1"/>
-      <c r="K225" s="12">
+      <c r="K225" s="10">
         <v>111</v>
       </c>
-      <c r="L225" s="13">
+      <c r="L225" s="11">
         <v>10510.1057684934</v>
       </c>
     </row>
-    <row r="226" spans="1:12">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
@@ -5579,14 +5605,14 @@
       <c r="H226" s="1"/>
       <c r="I226" s="1"/>
       <c r="J226" s="1"/>
-      <c r="K226" s="12">
+      <c r="K226" s="10">
         <v>111.5</v>
       </c>
-      <c r="L226" s="13">
+      <c r="L226" s="11">
         <v>8758.42147374456</v>
       </c>
     </row>
-    <row r="227" spans="1:12">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
@@ -5597,14 +5623,14 @@
       <c r="H227" s="1"/>
       <c r="I227" s="1"/>
       <c r="J227" s="1"/>
-      <c r="K227" s="12">
+      <c r="K227" s="10">
         <v>112</v>
       </c>
-      <c r="L227" s="13">
+      <c r="L227" s="11">
         <v>7298.6845614537997</v>
       </c>
     </row>
-    <row r="228" spans="1:12">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
@@ -5615,14 +5641,14 @@
       <c r="H228" s="1"/>
       <c r="I228" s="1"/>
       <c r="J228" s="1"/>
-      <c r="K228" s="12">
+      <c r="K228" s="10">
         <v>112.5</v>
       </c>
-      <c r="L228" s="13">
+      <c r="L228" s="11">
         <v>6082.23713454483</v>
       </c>
     </row>
-    <row r="229" spans="1:12">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -5633,14 +5659,14 @@
       <c r="H229" s="1"/>
       <c r="I229" s="1"/>
       <c r="J229" s="1"/>
-      <c r="K229" s="12">
+      <c r="K229" s="10">
         <v>113</v>
       </c>
-      <c r="L229" s="13">
+      <c r="L229" s="11">
         <v>5068.5309454540302</v>
       </c>
     </row>
-    <row r="230" spans="1:12">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
@@ -5651,14 +5677,14 @@
       <c r="H230" s="1"/>
       <c r="I230" s="1"/>
       <c r="J230" s="1"/>
-      <c r="K230" s="12">
+      <c r="K230" s="10">
         <v>113.5</v>
       </c>
-      <c r="L230" s="13">
+      <c r="L230" s="11">
         <v>4223.7757878783596</v>
       </c>
     </row>
-    <row r="231" spans="1:12">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
@@ -5669,14 +5695,14 @@
       <c r="H231" s="1"/>
       <c r="I231" s="1"/>
       <c r="J231" s="1"/>
-      <c r="K231" s="12">
+      <c r="K231" s="10">
         <v>114</v>
       </c>
-      <c r="L231" s="13">
+      <c r="L231" s="11">
         <v>3519.8131565652998</v>
       </c>
     </row>
-    <row r="232" spans="1:12">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
@@ -5687,14 +5713,14 @@
       <c r="H232" s="1"/>
       <c r="I232" s="1"/>
       <c r="J232" s="1"/>
-      <c r="K232" s="12">
+      <c r="K232" s="10">
         <v>114.5</v>
       </c>
-      <c r="L232" s="13">
+      <c r="L232" s="11">
         <v>2933.1776304710802</v>
       </c>
     </row>
-    <row r="233" spans="1:12">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
@@ -5705,14 +5731,14 @@
       <c r="H233" s="1"/>
       <c r="I233" s="1"/>
       <c r="J233" s="1"/>
-      <c r="K233" s="12">
+      <c r="K233" s="10">
         <v>115</v>
       </c>
-      <c r="L233" s="13">
+      <c r="L233" s="11">
         <v>2444.3146920592299</v>
       </c>
     </row>
-    <row r="234" spans="1:12">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
@@ -5723,14 +5749,14 @@
       <c r="H234" s="1"/>
       <c r="I234" s="1"/>
       <c r="J234" s="1"/>
-      <c r="K234" s="12">
+      <c r="K234" s="10">
         <v>115.5</v>
       </c>
-      <c r="L234" s="13">
+      <c r="L234" s="11">
         <v>2036.92891004936</v>
       </c>
     </row>
-    <row r="235" spans="1:12">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
@@ -5741,14 +5767,14 @@
       <c r="H235" s="1"/>
       <c r="I235" s="1"/>
       <c r="J235" s="1"/>
-      <c r="K235" s="12">
+      <c r="K235" s="10">
         <v>116</v>
       </c>
-      <c r="L235" s="13">
+      <c r="L235" s="11">
         <v>1697.4407583744701</v>
       </c>
     </row>
-    <row r="236" spans="1:12">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
@@ -5759,14 +5785,14 @@
       <c r="H236" s="1"/>
       <c r="I236" s="1"/>
       <c r="J236" s="1"/>
-      <c r="K236" s="12">
+      <c r="K236" s="10">
         <v>116.5</v>
       </c>
-      <c r="L236" s="13">
+      <c r="L236" s="11">
         <v>1414.53396531205</v>
       </c>
     </row>
-    <row r="237" spans="1:12">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
@@ -5777,14 +5803,14 @@
       <c r="H237" s="1"/>
       <c r="I237" s="1"/>
       <c r="J237" s="1"/>
-      <c r="K237" s="12">
+      <c r="K237" s="10">
         <v>117</v>
       </c>
-      <c r="L237" s="13">
+      <c r="L237" s="11">
         <v>1178.7783044267101</v>
       </c>
     </row>
-    <row r="238" spans="1:12">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
@@ -5795,14 +5821,14 @@
       <c r="H238" s="1"/>
       <c r="I238" s="1"/>
       <c r="J238" s="1"/>
-      <c r="K238" s="12">
+      <c r="K238" s="10">
         <v>117.5</v>
       </c>
-      <c r="L238" s="13">
+      <c r="L238" s="11">
         <v>982.31525368892903</v>
       </c>
     </row>
-    <row r="239" spans="1:12">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
@@ -5813,14 +5839,14 @@
       <c r="H239" s="1"/>
       <c r="I239" s="1"/>
       <c r="J239" s="1"/>
-      <c r="K239" s="12">
+      <c r="K239" s="10">
         <v>118</v>
       </c>
-      <c r="L239" s="13">
+      <c r="L239" s="11">
         <v>818.596044740774</v>
       </c>
     </row>
-    <row r="240" spans="1:12">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
@@ -5831,14 +5857,14 @@
       <c r="H240" s="1"/>
       <c r="I240" s="1"/>
       <c r="J240" s="1"/>
-      <c r="K240" s="12">
+      <c r="K240" s="10">
         <v>118.5</v>
       </c>
-      <c r="L240" s="13">
+      <c r="L240" s="11">
         <v>682.16337061731201</v>
       </c>
     </row>
-    <row r="241" spans="1:12">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
@@ -5849,14 +5875,14 @@
       <c r="H241" s="1"/>
       <c r="I241" s="1"/>
       <c r="J241" s="1"/>
-      <c r="K241" s="12">
+      <c r="K241" s="10">
         <v>119</v>
       </c>
-      <c r="L241" s="13">
+      <c r="L241" s="11">
         <v>568.46947551442599</v>
       </c>
     </row>
-    <row r="242" spans="1:12">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
@@ -5867,14 +5893,14 @@
       <c r="H242" s="1"/>
       <c r="I242" s="1"/>
       <c r="J242" s="1"/>
-      <c r="K242" s="12">
+      <c r="K242" s="10">
         <v>119.5</v>
       </c>
-      <c r="L242" s="13">
+      <c r="L242" s="11">
         <v>473.72456292868901</v>
       </c>
     </row>
-    <row r="243" spans="1:12" ht="15.75" thickBot="1">
+    <row r="243" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
@@ -5885,14 +5911,14 @@
       <c r="H243" s="1"/>
       <c r="I243" s="1"/>
       <c r="J243" s="1"/>
-      <c r="K243" s="14">
+      <c r="K243" s="12">
         <v>120</v>
       </c>
-      <c r="L243" s="15">
+      <c r="L243" s="13">
         <v>394.77046910723999</v>
       </c>
     </row>
-    <row r="244" spans="1:12">
+    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
@@ -5906,7 +5932,7 @@
       <c r="K244" s="1"/>
       <c r="L244" s="1"/>
     </row>
-    <row r="245" spans="1:12">
+    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
@@ -5917,8 +5943,13 @@
       <c r="H245" s="1"/>
       <c r="I245" s="1"/>
       <c r="J245" s="1"/>
-      <c r="K245" s="1"/>
-      <c r="L245" s="1"/>
+      <c r="K245" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="L245" s="16">
+        <f>(L147-I75)/L147 %</f>
+        <v>0.16556224501572367</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5933,24 +5964,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
